--- a/OPM经济数值/活动_1_英雄试炼.xlsx
+++ b/OPM经济数值/活动_1_英雄试炼.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="28130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xuhaihua\Desktop\OPM数值\OPM经济数值\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/oas/Documents/work/github/OPM_Excel/OPM经济数值/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A546296-FA0E-4973-AAD1-6F4AF3452AD9}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="460" windowWidth="38520" windowHeight="18600" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="副本产出" sheetId="3" r:id="rId1"/>
@@ -21,25 +20,25 @@
   <externalReferences>
     <externalReference r:id="rId5"/>
   </externalReferences>
-  <calcPr calcId="181029" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
       </xcalcf:calcFeatures>
     </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="151">
   <si>
     <t>类型</t>
     <rPh sb="0" eb="1">
@@ -725,19 +724,15 @@
     <t>现金虚价</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
-  <si>
-    <t>额外价值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="15">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -789,6 +784,7 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="DengXian"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -809,6 +805,7 @@
     <font>
       <sz val="10"/>
       <name val="DengXian"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -817,6 +814,7 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="DengXian"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -824,6 +822,7 @@
       <b/>
       <sz val="10"/>
       <name val="DengXian"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -941,7 +940,7 @@
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 3 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="常规 3 2" xfId="1"/>
     <cellStyle name="超链接" xfId="2" builtinId="8" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="3" builtinId="9" hidden="1"/>
   </cellStyles>
@@ -973,13 +972,23 @@
           <cell r="A1" t="str">
             <v>代币</v>
           </cell>
-          <cell r="B1"/>
-          <cell r="C1"/>
-          <cell r="D1"/>
-          <cell r="E1"/>
+          <cell r="B1">
+            <v>0</v>
+          </cell>
+          <cell r="C1">
+            <v>0</v>
+          </cell>
+          <cell r="D1">
+            <v>0</v>
+          </cell>
+          <cell r="E1">
+            <v>0</v>
+          </cell>
         </row>
         <row r="2">
-          <cell r="A2"/>
+          <cell r="A2">
+            <v>0</v>
+          </cell>
           <cell r="B2" t="str">
             <v>经验</v>
           </cell>
@@ -997,7 +1006,9 @@
           </cell>
         </row>
         <row r="3">
-          <cell r="A3"/>
+          <cell r="A3">
+            <v>0</v>
+          </cell>
           <cell r="B3" t="str">
             <v>现金</v>
           </cell>
@@ -1015,7 +1026,9 @@
           </cell>
         </row>
         <row r="4">
-          <cell r="A4"/>
+          <cell r="A4">
+            <v>0</v>
+          </cell>
           <cell r="B4" t="str">
             <v>体力</v>
           </cell>
@@ -1030,7 +1043,9 @@
           </cell>
         </row>
         <row r="5">
-          <cell r="A5"/>
+          <cell r="A5">
+            <v>0</v>
+          </cell>
           <cell r="B5" t="str">
             <v>泽尼尔币</v>
           </cell>
@@ -1045,7 +1060,9 @@
           </cell>
         </row>
         <row r="6">
-          <cell r="A6"/>
+          <cell r="A6">
+            <v>0</v>
+          </cell>
           <cell r="B6" t="str">
             <v>公会贡献</v>
           </cell>
@@ -1060,7 +1077,9 @@
           </cell>
         </row>
         <row r="7">
-          <cell r="A7"/>
+          <cell r="A7">
+            <v>0</v>
+          </cell>
           <cell r="B7" t="str">
             <v>副本代币</v>
           </cell>
@@ -1075,7 +1094,9 @@
           </cell>
         </row>
         <row r="8">
-          <cell r="A8"/>
+          <cell r="A8">
+            <v>0</v>
+          </cell>
           <cell r="B8" t="str">
             <v>强者之路货币</v>
           </cell>
@@ -1090,11 +1111,15 @@
           </cell>
         </row>
         <row r="9">
-          <cell r="A9"/>
+          <cell r="A9">
+            <v>0</v>
+          </cell>
           <cell r="B9" t="str">
             <v>钻石</v>
           </cell>
-          <cell r="C9"/>
+          <cell r="C9">
+            <v>0</v>
+          </cell>
           <cell r="D9" t="str">
             <v>cash</v>
           </cell>
@@ -1106,11 +1131,15 @@
           </cell>
         </row>
         <row r="10">
-          <cell r="A10"/>
+          <cell r="A10">
+            <v>0</v>
+          </cell>
           <cell r="B10" t="str">
             <v>色子</v>
           </cell>
-          <cell r="C10"/>
+          <cell r="C10">
+            <v>0</v>
+          </cell>
           <cell r="D10" t="str">
             <v>dice</v>
           </cell>
@@ -1119,23 +1148,43 @@
           </cell>
         </row>
         <row r="11">
-          <cell r="A11"/>
-          <cell r="B11"/>
-          <cell r="C11"/>
-          <cell r="D11"/>
-          <cell r="E11"/>
+          <cell r="A11">
+            <v>0</v>
+          </cell>
+          <cell r="B11">
+            <v>0</v>
+          </cell>
+          <cell r="C11">
+            <v>0</v>
+          </cell>
+          <cell r="D11">
+            <v>0</v>
+          </cell>
+          <cell r="E11">
+            <v>0</v>
+          </cell>
         </row>
         <row r="12">
           <cell r="A12" t="str">
             <v>其他类型</v>
           </cell>
-          <cell r="B12"/>
-          <cell r="C12"/>
-          <cell r="D12"/>
-          <cell r="E12"/>
+          <cell r="B12">
+            <v>0</v>
+          </cell>
+          <cell r="C12">
+            <v>0</v>
+          </cell>
+          <cell r="D12">
+            <v>0</v>
+          </cell>
+          <cell r="E12">
+            <v>0</v>
+          </cell>
         </row>
         <row r="13">
-          <cell r="A13"/>
+          <cell r="A13">
+            <v>0</v>
+          </cell>
           <cell r="B13" t="str">
             <v>随机1星饰品</v>
           </cell>
@@ -1153,7 +1202,9 @@
           </cell>
         </row>
         <row r="14">
-          <cell r="A14"/>
+          <cell r="A14">
+            <v>0</v>
+          </cell>
           <cell r="B14" t="str">
             <v>随机2星饰品</v>
           </cell>
@@ -1171,7 +1222,9 @@
           </cell>
         </row>
         <row r="15">
-          <cell r="A15"/>
+          <cell r="A15">
+            <v>0</v>
+          </cell>
           <cell r="B15" t="str">
             <v>随机3星饰品</v>
           </cell>
@@ -1189,7 +1242,9 @@
           </cell>
         </row>
         <row r="16">
-          <cell r="A16"/>
+          <cell r="A16">
+            <v>0</v>
+          </cell>
           <cell r="B16" t="str">
             <v>随机4星饰品</v>
           </cell>
@@ -1207,7 +1262,9 @@
           </cell>
         </row>
         <row r="17">
-          <cell r="A17"/>
+          <cell r="A17">
+            <v>0</v>
+          </cell>
           <cell r="B17" t="str">
             <v>随机5星饰品</v>
           </cell>
@@ -1225,7 +1282,9 @@
           </cell>
         </row>
         <row r="18">
-          <cell r="A18"/>
+          <cell r="A18">
+            <v>0</v>
+          </cell>
           <cell r="B18" t="str">
             <v>随机图A碎片</v>
           </cell>
@@ -1237,7 +1296,9 @@
           </cell>
         </row>
         <row r="19">
-          <cell r="A19"/>
+          <cell r="A19">
+            <v>0</v>
+          </cell>
           <cell r="B19" t="str">
             <v>随机图B碎片</v>
           </cell>
@@ -1249,7 +1310,9 @@
           </cell>
         </row>
         <row r="20">
-          <cell r="A20"/>
+          <cell r="A20">
+            <v>0</v>
+          </cell>
           <cell r="B20" t="str">
             <v>随机图C碎片</v>
           </cell>
@@ -1261,11 +1324,21 @@
           </cell>
         </row>
         <row r="21">
-          <cell r="A21"/>
-          <cell r="B21"/>
-          <cell r="C21"/>
-          <cell r="D21"/>
-          <cell r="E21"/>
+          <cell r="A21">
+            <v>0</v>
+          </cell>
+          <cell r="B21">
+            <v>0</v>
+          </cell>
+          <cell r="C21">
+            <v>0</v>
+          </cell>
+          <cell r="D21">
+            <v>0</v>
+          </cell>
+          <cell r="E21">
+            <v>0</v>
+          </cell>
         </row>
         <row r="22">
           <cell r="A22" t="str">
@@ -1274,8 +1347,12 @@
           <cell r="B22" t="str">
             <v>R</v>
           </cell>
-          <cell r="C22"/>
-          <cell r="D22"/>
+          <cell r="C22">
+            <v>0</v>
+          </cell>
+          <cell r="D22">
+            <v>0</v>
+          </cell>
           <cell r="E22">
             <v>300</v>
           </cell>
@@ -1284,12 +1361,18 @@
           </cell>
         </row>
         <row r="23">
-          <cell r="A23"/>
+          <cell r="A23">
+            <v>0</v>
+          </cell>
           <cell r="B23" t="str">
             <v>SR</v>
           </cell>
-          <cell r="C23"/>
-          <cell r="D23"/>
+          <cell r="C23">
+            <v>0</v>
+          </cell>
+          <cell r="D23">
+            <v>0</v>
+          </cell>
           <cell r="E23">
             <v>800</v>
           </cell>
@@ -1298,12 +1381,18 @@
           </cell>
         </row>
         <row r="24">
-          <cell r="A24"/>
+          <cell r="A24">
+            <v>0</v>
+          </cell>
           <cell r="B24" t="str">
             <v>SSR</v>
           </cell>
-          <cell r="C24"/>
-          <cell r="D24"/>
+          <cell r="C24">
+            <v>0</v>
+          </cell>
+          <cell r="D24">
+            <v>0</v>
+          </cell>
           <cell r="E24">
             <v>5000</v>
           </cell>
@@ -1312,12 +1401,18 @@
           </cell>
         </row>
         <row r="25">
-          <cell r="A25"/>
+          <cell r="A25">
+            <v>0</v>
+          </cell>
           <cell r="B25" t="str">
             <v>R碎片</v>
           </cell>
-          <cell r="C25"/>
-          <cell r="D25"/>
+          <cell r="C25">
+            <v>0</v>
+          </cell>
+          <cell r="D25">
+            <v>0</v>
+          </cell>
           <cell r="E25">
             <v>10</v>
           </cell>
@@ -1326,12 +1421,18 @@
           </cell>
         </row>
         <row r="26">
-          <cell r="A26"/>
+          <cell r="A26">
+            <v>0</v>
+          </cell>
           <cell r="B26" t="str">
             <v>SR碎片</v>
           </cell>
-          <cell r="C26"/>
-          <cell r="D26"/>
+          <cell r="C26">
+            <v>0</v>
+          </cell>
+          <cell r="D26">
+            <v>0</v>
+          </cell>
           <cell r="E26">
             <v>20</v>
           </cell>
@@ -1340,12 +1441,18 @@
           </cell>
         </row>
         <row r="27">
-          <cell r="A27"/>
+          <cell r="A27">
+            <v>0</v>
+          </cell>
           <cell r="B27" t="str">
             <v>SSR碎片</v>
           </cell>
-          <cell r="C27"/>
-          <cell r="D27"/>
+          <cell r="C27">
+            <v>0</v>
+          </cell>
+          <cell r="D27">
+            <v>0</v>
+          </cell>
           <cell r="E27">
             <v>100</v>
           </cell>
@@ -1354,11 +1461,15 @@
           </cell>
         </row>
         <row r="28">
-          <cell r="A28"/>
+          <cell r="A28">
+            <v>0</v>
+          </cell>
           <cell r="B28" t="str">
             <v>技能碎片</v>
           </cell>
-          <cell r="C28"/>
+          <cell r="C28">
+            <v>0</v>
+          </cell>
           <cell r="D28" t="str">
             <v>prop,403</v>
           </cell>
@@ -1370,27 +1481,55 @@
           </cell>
         </row>
         <row r="29">
-          <cell r="A29"/>
-          <cell r="B29"/>
-          <cell r="C29"/>
-          <cell r="D29"/>
-          <cell r="E29"/>
+          <cell r="A29">
+            <v>0</v>
+          </cell>
+          <cell r="B29">
+            <v>0</v>
+          </cell>
+          <cell r="C29">
+            <v>0</v>
+          </cell>
+          <cell r="D29">
+            <v>0</v>
+          </cell>
+          <cell r="E29">
+            <v>0</v>
+          </cell>
         </row>
         <row r="30">
-          <cell r="A30"/>
-          <cell r="B30"/>
-          <cell r="C30"/>
-          <cell r="D30"/>
-          <cell r="E30"/>
+          <cell r="A30">
+            <v>0</v>
+          </cell>
+          <cell r="B30">
+            <v>0</v>
+          </cell>
+          <cell r="C30">
+            <v>0</v>
+          </cell>
+          <cell r="D30">
+            <v>0</v>
+          </cell>
+          <cell r="E30">
+            <v>0</v>
+          </cell>
         </row>
         <row r="31">
           <cell r="A31" t="str">
             <v>道具表</v>
           </cell>
-          <cell r="B31"/>
-          <cell r="C31"/>
-          <cell r="D31"/>
-          <cell r="E31"/>
+          <cell r="B31">
+            <v>0</v>
+          </cell>
+          <cell r="C31">
+            <v>0</v>
+          </cell>
+          <cell r="D31">
+            <v>0</v>
+          </cell>
+          <cell r="E31">
+            <v>0</v>
+          </cell>
         </row>
         <row r="32">
           <cell r="A32" t="str">
@@ -1542,7 +1681,9 @@
           <cell r="D39" t="str">
             <v>prop,201</v>
           </cell>
-          <cell r="E39"/>
+          <cell r="E39">
+            <v>0</v>
+          </cell>
         </row>
         <row r="40">
           <cell r="A40">
@@ -3257,7 +3398,9 @@
           <cell r="D134" t="str">
             <v>prop,610</v>
           </cell>
-          <cell r="E134"/>
+          <cell r="E134">
+            <v>0</v>
+          </cell>
         </row>
         <row r="135">
           <cell r="A135">
@@ -3272,51 +3415,77 @@
           <cell r="D135" t="str">
             <v>prop,611</v>
           </cell>
-          <cell r="E135"/>
+          <cell r="E135">
+            <v>0</v>
+          </cell>
         </row>
         <row r="136">
           <cell r="A136">
             <v>612</v>
           </cell>
-          <cell r="B136"/>
-          <cell r="C136"/>
+          <cell r="B136">
+            <v>0</v>
+          </cell>
+          <cell r="C136">
+            <v>0</v>
+          </cell>
           <cell r="D136" t="str">
             <v>prop,612</v>
           </cell>
-          <cell r="E136"/>
+          <cell r="E136">
+            <v>0</v>
+          </cell>
         </row>
         <row r="137">
           <cell r="A137">
             <v>613</v>
           </cell>
-          <cell r="B137"/>
-          <cell r="C137"/>
+          <cell r="B137">
+            <v>0</v>
+          </cell>
+          <cell r="C137">
+            <v>0</v>
+          </cell>
           <cell r="D137" t="str">
             <v>prop,613</v>
           </cell>
-          <cell r="E137"/>
+          <cell r="E137">
+            <v>0</v>
+          </cell>
         </row>
         <row r="138">
           <cell r="A138">
             <v>614</v>
           </cell>
-          <cell r="B138"/>
-          <cell r="C138"/>
+          <cell r="B138">
+            <v>0</v>
+          </cell>
+          <cell r="C138">
+            <v>0</v>
+          </cell>
           <cell r="D138" t="str">
             <v>prop,614</v>
           </cell>
-          <cell r="E138"/>
+          <cell r="E138">
+            <v>0</v>
+          </cell>
         </row>
         <row r="139">
           <cell r="A139">
             <v>615</v>
           </cell>
-          <cell r="B139"/>
-          <cell r="C139"/>
+          <cell r="B139">
+            <v>0</v>
+          </cell>
+          <cell r="C139">
+            <v>0</v>
+          </cell>
           <cell r="D139" t="str">
             <v>prop,615</v>
           </cell>
-          <cell r="E139"/>
+          <cell r="E139">
+            <v>0</v>
+          </cell>
         </row>
         <row r="140">
           <cell r="A140">
@@ -3325,11 +3494,15 @@
           <cell r="B140" t="str">
             <v>公会礼包</v>
           </cell>
-          <cell r="C140"/>
+          <cell r="C140">
+            <v>0</v>
+          </cell>
           <cell r="D140" t="str">
             <v>prop,616</v>
           </cell>
-          <cell r="E140"/>
+          <cell r="E140">
+            <v>0</v>
+          </cell>
         </row>
         <row r="141">
           <cell r="A141">
@@ -3344,7 +3517,9 @@
           <cell r="D141" t="str">
             <v>prop,617</v>
           </cell>
-          <cell r="E141"/>
+          <cell r="E141">
+            <v>0</v>
+          </cell>
         </row>
         <row r="142">
           <cell r="A142">
@@ -3359,7 +3534,9 @@
           <cell r="D142" t="str">
             <v>prop,618</v>
           </cell>
-          <cell r="E142"/>
+          <cell r="E142">
+            <v>0</v>
+          </cell>
         </row>
         <row r="143">
           <cell r="A143">
@@ -3374,7 +3551,9 @@
           <cell r="D143" t="str">
             <v>prop,619</v>
           </cell>
-          <cell r="E143"/>
+          <cell r="E143">
+            <v>0</v>
+          </cell>
         </row>
         <row r="144">
           <cell r="A144">
@@ -3389,7 +3568,9 @@
           <cell r="D144" t="str">
             <v>prop,620</v>
           </cell>
-          <cell r="E144"/>
+          <cell r="E144">
+            <v>0</v>
+          </cell>
         </row>
         <row r="145">
           <cell r="A145">
@@ -3404,7 +3585,9 @@
           <cell r="D145" t="str">
             <v>prop,621</v>
           </cell>
-          <cell r="E145"/>
+          <cell r="E145">
+            <v>0</v>
+          </cell>
         </row>
         <row r="146">
           <cell r="A146">
@@ -3419,7 +3602,9 @@
           <cell r="D146" t="str">
             <v>prop,622</v>
           </cell>
-          <cell r="E146"/>
+          <cell r="E146">
+            <v>0</v>
+          </cell>
         </row>
         <row r="147">
           <cell r="A147">
@@ -3434,7 +3619,9 @@
           <cell r="D147" t="str">
             <v>prop,623</v>
           </cell>
-          <cell r="E147"/>
+          <cell r="E147">
+            <v>0</v>
+          </cell>
         </row>
         <row r="148">
           <cell r="A148">
@@ -3449,7 +3636,9 @@
           <cell r="D148" t="str">
             <v>prop,624</v>
           </cell>
-          <cell r="E148"/>
+          <cell r="E148">
+            <v>0</v>
+          </cell>
         </row>
         <row r="149">
           <cell r="A149">
@@ -3464,7 +3653,9 @@
           <cell r="D149" t="str">
             <v>prop,601</v>
           </cell>
-          <cell r="E149"/>
+          <cell r="E149">
+            <v>0</v>
+          </cell>
         </row>
         <row r="150">
           <cell r="A150">
@@ -3479,7 +3670,9 @@
           <cell r="D150" t="str">
             <v>prop,602</v>
           </cell>
-          <cell r="E150"/>
+          <cell r="E150">
+            <v>0</v>
+          </cell>
         </row>
         <row r="151">
           <cell r="A151">
@@ -3494,7 +3687,9 @@
           <cell r="D151" t="str">
             <v>prop,603</v>
           </cell>
-          <cell r="E151"/>
+          <cell r="E151">
+            <v>0</v>
+          </cell>
         </row>
         <row r="152">
           <cell r="A152">
@@ -3509,7 +3704,9 @@
           <cell r="D152" t="str">
             <v>prop,604</v>
           </cell>
-          <cell r="E152"/>
+          <cell r="E152">
+            <v>0</v>
+          </cell>
         </row>
         <row r="153">
           <cell r="A153">
@@ -3524,7 +3721,9 @@
           <cell r="D153" t="str">
             <v>prop,605</v>
           </cell>
-          <cell r="E153"/>
+          <cell r="E153">
+            <v>0</v>
+          </cell>
         </row>
         <row r="154">
           <cell r="A154">
@@ -3539,7 +3738,9 @@
           <cell r="D154" t="str">
             <v>prop,606</v>
           </cell>
-          <cell r="E154"/>
+          <cell r="E154">
+            <v>0</v>
+          </cell>
         </row>
         <row r="155">
           <cell r="A155">
@@ -3554,7 +3755,9 @@
           <cell r="D155" t="str">
             <v>prop,607</v>
           </cell>
-          <cell r="E155"/>
+          <cell r="E155">
+            <v>0</v>
+          </cell>
         </row>
         <row r="156">
           <cell r="A156">
@@ -3569,7 +3772,9 @@
           <cell r="D156" t="str">
             <v>prop,608</v>
           </cell>
-          <cell r="E156"/>
+          <cell r="E156">
+            <v>0</v>
+          </cell>
         </row>
         <row r="157">
           <cell r="A157">
@@ -3843,7 +4048,9 @@
           <cell r="B171" t="str">
             <v>迷宫复活道具</v>
           </cell>
-          <cell r="C171"/>
+          <cell r="C171">
+            <v>0</v>
+          </cell>
           <cell r="D171" t="str">
             <v>prop,809</v>
           </cell>
@@ -4127,20 +4334,38 @@
           </cell>
         </row>
         <row r="188">
-          <cell r="A188"/>
-          <cell r="B188"/>
-          <cell r="C188"/>
-          <cell r="D188"/>
-          <cell r="E188"/>
+          <cell r="A188">
+            <v>0</v>
+          </cell>
+          <cell r="B188">
+            <v>0</v>
+          </cell>
+          <cell r="C188">
+            <v>0</v>
+          </cell>
+          <cell r="D188">
+            <v>0</v>
+          </cell>
+          <cell r="E188">
+            <v>0</v>
+          </cell>
         </row>
         <row r="189">
           <cell r="A189" t="str">
             <v>英雄</v>
           </cell>
-          <cell r="B189"/>
-          <cell r="C189"/>
-          <cell r="D189"/>
-          <cell r="E189"/>
+          <cell r="B189">
+            <v>0</v>
+          </cell>
+          <cell r="C189">
+            <v>0</v>
+          </cell>
+          <cell r="D189">
+            <v>0</v>
+          </cell>
+          <cell r="E189">
+            <v>0</v>
+          </cell>
         </row>
         <row r="190">
           <cell r="A190">
@@ -5493,37 +5718,37 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AP64"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="9.75" style="1" customWidth="1"/>
-    <col min="2" max="2" width="7.75" style="1" customWidth="1"/>
+    <col min="1" max="1" width="9.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="7.6640625" style="1" customWidth="1"/>
     <col min="3" max="3" width="8" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="11" width="9.75" style="4" customWidth="1"/>
+    <col min="4" max="4" width="7.33203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="11" width="9.6640625" style="4" customWidth="1"/>
     <col min="12" max="12" width="11" style="1"/>
     <col min="13" max="13" width="11" style="4"/>
-    <col min="14" max="14" width="13.125" style="4" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.125" style="4" customWidth="1"/>
+    <col min="14" max="14" width="13.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.1640625" style="4" customWidth="1"/>
     <col min="16" max="16" width="7.5" style="4" customWidth="1"/>
-    <col min="17" max="18" width="8.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="5.125" style="4" customWidth="1"/>
-    <col min="21" max="21" width="8.875" style="4" customWidth="1"/>
-    <col min="22" max="42" width="5.125" style="4" customWidth="1"/>
+    <col min="17" max="18" width="8.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="5.1640625" style="4" customWidth="1"/>
+    <col min="21" max="21" width="8.83203125" style="4" customWidth="1"/>
+    <col min="22" max="42" width="5.1640625" style="4" customWidth="1"/>
     <col min="43" max="16384" width="11" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>30</v>
       </c>
@@ -5571,7 +5796,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="2" spans="1:23">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -5637,7 +5862,7 @@
         <v>25,1,0,0</v>
       </c>
     </row>
-    <row r="3" spans="1:23">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -5703,7 +5928,7 @@
         <v>46,1,0,0</v>
       </c>
     </row>
-    <row r="4" spans="1:23">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -5769,7 +5994,7 @@
         <v>13,1,0,0</v>
       </c>
     </row>
-    <row r="5" spans="1:23">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -5835,7 +6060,7 @@
         <v>8,1,0,0</v>
       </c>
     </row>
-    <row r="6" spans="1:23">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -5901,7 +6126,7 @@
         <v>51,1,0,0</v>
       </c>
     </row>
-    <row r="7" spans="1:23">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.15">
       <c r="M7" s="4">
         <f>M2+10</f>
         <v>1011</v>
@@ -5921,7 +6146,7 @@
         <v>prop,702,1</v>
       </c>
     </row>
-    <row r="8" spans="1:23">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A8" s="3" t="s">
         <v>23</v>
       </c>
@@ -5944,7 +6169,7 @@
         <v>prop,106,2</v>
       </c>
     </row>
-    <row r="9" spans="1:23">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.15">
       <c r="M9" s="4">
         <f t="shared" si="4"/>
         <v>1013</v>
@@ -5964,7 +6189,7 @@
         <v>prop,403,3</v>
       </c>
     </row>
-    <row r="10" spans="1:23">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.15">
       <c r="B10" s="1" t="s">
         <v>26</v>
       </c>
@@ -5990,7 +6215,7 @@
         <v>prop,318,1</v>
       </c>
     </row>
-    <row r="11" spans="1:23">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
@@ -6020,7 +6245,7 @@
         <v>prop,315,1</v>
       </c>
     </row>
-    <row r="12" spans="1:23">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
         <v>3</v>
       </c>
@@ -6052,7 +6277,7 @@
         <v>prop,702,1</v>
       </c>
     </row>
-    <row r="13" spans="1:23">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
         <v>28</v>
       </c>
@@ -6081,7 +6306,7 @@
         <v>prop,106,2</v>
       </c>
     </row>
-    <row r="14" spans="1:23">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.15">
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
       <c r="M14" s="4">
@@ -6103,7 +6328,7 @@
         <v>prop,403,3</v>
       </c>
     </row>
-    <row r="15" spans="1:23">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
         <v>140</v>
       </c>
@@ -6113,11 +6338,11 @@
       </c>
       <c r="C15" s="4"/>
       <c r="E15" s="1" t="s">
-        <v>151</v>
+        <v>63</v>
       </c>
       <c r="F15" s="1">
-        <f>(B15-50)*B16*B17</f>
-        <v>22940.000000000004</v>
+        <f>(B15)*B16*B17</f>
+        <v>31940.000000000004</v>
       </c>
       <c r="M15" s="4">
         <f>M10+10</f>
@@ -6138,7 +6363,7 @@
         <v>prop,318,1</v>
       </c>
     </row>
-    <row r="16" spans="1:23">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
         <v>141</v>
       </c>
@@ -6166,7 +6391,7 @@
         <v>prop,315,1</v>
       </c>
     </row>
-    <row r="17" spans="1:30">
+    <row r="17" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
         <v>142</v>
       </c>
@@ -6175,7 +6400,7 @@
       </c>
       <c r="C17" s="4"/>
     </row>
-    <row r="18" spans="1:30">
+    <row r="18" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A18" s="18" t="s">
         <v>143</v>
       </c>
@@ -6192,7 +6417,7 @@
         <v>4250</v>
       </c>
     </row>
-    <row r="19" spans="1:30">
+    <row r="19" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A19" s="18" t="s">
         <v>33</v>
       </c>
@@ -6250,7 +6475,7 @@
         <v>0.42857142857142855</v>
       </c>
     </row>
-    <row r="20" spans="1:30">
+    <row r="20" spans="1:30" x14ac:dyDescent="0.15">
       <c r="S20" s="4">
         <v>10</v>
       </c>
@@ -6264,7 +6489,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="21" spans="1:30">
+    <row r="21" spans="1:30" x14ac:dyDescent="0.15">
       <c r="O21" s="4" t="s">
         <v>84</v>
       </c>
@@ -6314,7 +6539,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="22" spans="1:30">
+    <row r="22" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A22" s="1" t="s">
         <v>8</v>
       </c>
@@ -6376,7 +6601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:30">
+    <row r="23" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A23" s="4">
         <v>1</v>
       </c>
@@ -6439,7 +6664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:30">
+    <row r="24" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A24" s="4">
         <v>2</v>
       </c>
@@ -6502,7 +6727,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="25" spans="1:30">
+    <row r="25" spans="1:30" x14ac:dyDescent="0.15">
       <c r="N25" s="19" t="s">
         <v>36</v>
       </c>
@@ -6558,7 +6783,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:30">
+    <row r="26" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A26" s="1" t="s">
         <v>131</v>
       </c>
@@ -6621,7 +6846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:30">
+    <row r="27" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A27" s="4">
         <v>1</v>
       </c>
@@ -6684,7 +6909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:30">
+    <row r="28" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A28" s="4">
         <v>2</v>
       </c>
@@ -6746,7 +6971,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:30">
+    <row r="29" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A29" s="4">
         <v>3</v>
       </c>
@@ -6808,7 +7033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:30">
+    <row r="30" spans="1:30" x14ac:dyDescent="0.15">
       <c r="N30" s="19" t="s">
         <v>83</v>
       </c>
@@ -6864,7 +7089,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="31" spans="1:30">
+    <row r="31" spans="1:30" x14ac:dyDescent="0.15">
       <c r="N31" s="19" t="s">
         <v>77</v>
       </c>
@@ -6920,7 +7145,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:30">
+    <row r="32" spans="1:30" x14ac:dyDescent="0.15">
       <c r="N32" s="19" t="s">
         <v>78</v>
       </c>
@@ -6976,7 +7201,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="9:42">
+    <row r="33" spans="9:42" x14ac:dyDescent="0.15">
       <c r="N33" s="19" t="s">
         <v>50</v>
       </c>
@@ -7032,7 +7257,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="34" spans="9:42">
+    <row r="34" spans="9:42" x14ac:dyDescent="0.15">
       <c r="N34" s="19" t="s">
         <v>103</v>
       </c>
@@ -7088,7 +7313,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="35" spans="9:42">
+    <row r="35" spans="9:42" x14ac:dyDescent="0.15">
       <c r="N35" s="19" t="s">
         <v>65</v>
       </c>
@@ -7144,7 +7369,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="36" spans="9:42">
+    <row r="36" spans="9:42" x14ac:dyDescent="0.15">
       <c r="N36" s="19" t="s">
         <v>95</v>
       </c>
@@ -7198,7 +7423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="9:42">
+    <row r="37" spans="9:42" x14ac:dyDescent="0.15">
       <c r="N37" s="19" t="s">
         <v>97</v>
       </c>
@@ -7252,7 +7477,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="38" spans="9:42">
+    <row r="38" spans="9:42" x14ac:dyDescent="0.15">
       <c r="N38" s="19" t="s">
         <v>99</v>
       </c>
@@ -7306,7 +7531,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="39" spans="9:42">
+    <row r="39" spans="9:42" x14ac:dyDescent="0.15">
       <c r="N39" s="19"/>
       <c r="Q39" s="4"/>
       <c r="S39" s="4">
@@ -7358,7 +7583,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="40" spans="9:42">
+    <row r="40" spans="9:42" x14ac:dyDescent="0.15">
       <c r="N40" s="19"/>
       <c r="Q40" s="4"/>
       <c r="AE40" s="20"/>
@@ -7374,7 +7599,7 @@
       <c r="AO40" s="20"/>
       <c r="AP40" s="20"/>
     </row>
-    <row r="41" spans="9:42" ht="14.25">
+    <row r="41" spans="9:42" ht="15" x14ac:dyDescent="0.15">
       <c r="I41" s="21"/>
       <c r="L41" s="23">
         <v>306</v>
@@ -7450,7 +7675,7 @@
       <c r="AO41" s="20"/>
       <c r="AP41" s="20"/>
     </row>
-    <row r="42" spans="9:42" ht="14.25">
+    <row r="42" spans="9:42" ht="15" x14ac:dyDescent="0.15">
       <c r="I42" s="21"/>
       <c r="L42" s="23">
         <v>307</v>
@@ -7526,7 +7751,7 @@
       <c r="AO42" s="20"/>
       <c r="AP42" s="20"/>
     </row>
-    <row r="43" spans="9:42" ht="14.25">
+    <row r="43" spans="9:42" ht="15" x14ac:dyDescent="0.15">
       <c r="I43" s="21"/>
       <c r="L43" s="23">
         <v>308</v>
@@ -7602,7 +7827,7 @@
       <c r="AO43" s="20"/>
       <c r="AP43" s="20"/>
     </row>
-    <row r="44" spans="9:42" ht="14.25">
+    <row r="44" spans="9:42" ht="15" x14ac:dyDescent="0.15">
       <c r="I44" s="21"/>
       <c r="L44" s="23">
         <v>309</v>
@@ -7678,7 +7903,7 @@
       <c r="AO44" s="20"/>
       <c r="AP44" s="20"/>
     </row>
-    <row r="45" spans="9:42" ht="14.25">
+    <row r="45" spans="9:42" ht="15" x14ac:dyDescent="0.15">
       <c r="I45" s="21"/>
       <c r="L45" s="23">
         <v>310</v>
@@ -7754,7 +7979,7 @@
       <c r="AO45" s="20"/>
       <c r="AP45" s="20"/>
     </row>
-    <row r="46" spans="9:42" ht="14.25">
+    <row r="46" spans="9:42" ht="15" x14ac:dyDescent="0.15">
       <c r="I46" s="21"/>
       <c r="L46" s="23">
         <v>311</v>
@@ -7830,7 +8055,7 @@
       <c r="AO46" s="20"/>
       <c r="AP46" s="20"/>
     </row>
-    <row r="47" spans="9:42" ht="14.25">
+    <row r="47" spans="9:42" ht="15" x14ac:dyDescent="0.15">
       <c r="I47" s="21"/>
       <c r="L47" s="23">
         <v>312</v>
@@ -7906,7 +8131,7 @@
       <c r="AO47" s="20"/>
       <c r="AP47" s="20"/>
     </row>
-    <row r="48" spans="9:42" ht="14.25">
+    <row r="48" spans="9:42" ht="15" x14ac:dyDescent="0.15">
       <c r="I48" s="21"/>
       <c r="L48" s="23">
         <v>313</v>
@@ -7982,7 +8207,7 @@
       <c r="AO48" s="20"/>
       <c r="AP48" s="20"/>
     </row>
-    <row r="49" spans="9:42" ht="14.25">
+    <row r="49" spans="9:42" ht="15" x14ac:dyDescent="0.15">
       <c r="I49" s="21"/>
       <c r="L49" s="23">
         <v>314</v>
@@ -8058,7 +8283,7 @@
       <c r="AO49" s="20"/>
       <c r="AP49" s="20"/>
     </row>
-    <row r="50" spans="9:42" ht="14.25">
+    <row r="50" spans="9:42" ht="15" x14ac:dyDescent="0.15">
       <c r="I50" s="21"/>
       <c r="L50" s="23">
         <v>315</v>
@@ -8134,7 +8359,7 @@
       <c r="AO50" s="20"/>
       <c r="AP50" s="20"/>
     </row>
-    <row r="51" spans="9:42" ht="14.25">
+    <row r="51" spans="9:42" ht="15" x14ac:dyDescent="0.15">
       <c r="I51" s="21"/>
       <c r="L51" s="23">
         <v>316</v>
@@ -8210,7 +8435,7 @@
       <c r="AO51" s="20"/>
       <c r="AP51" s="20"/>
     </row>
-    <row r="52" spans="9:42" ht="14.25">
+    <row r="52" spans="9:42" ht="15" x14ac:dyDescent="0.15">
       <c r="I52" s="21"/>
       <c r="L52" s="23">
         <v>317</v>
@@ -8286,7 +8511,7 @@
       <c r="AO52" s="20"/>
       <c r="AP52" s="20"/>
     </row>
-    <row r="53" spans="9:42" ht="14.25">
+    <row r="53" spans="9:42" ht="15" x14ac:dyDescent="0.15">
       <c r="I53" s="21"/>
       <c r="N53" s="1"/>
       <c r="Q53" s="4">
@@ -8354,7 +8579,7 @@
       <c r="AO53" s="20"/>
       <c r="AP53" s="20"/>
     </row>
-    <row r="54" spans="9:42" ht="14.25">
+    <row r="54" spans="9:42" ht="15" x14ac:dyDescent="0.15">
       <c r="I54" s="21"/>
       <c r="N54" s="1"/>
       <c r="Q54" s="4">
@@ -8422,7 +8647,7 @@
       <c r="AO54" s="20"/>
       <c r="AP54" s="20"/>
     </row>
-    <row r="55" spans="9:42" ht="14.25">
+    <row r="55" spans="9:42" ht="15" x14ac:dyDescent="0.15">
       <c r="I55" s="21"/>
       <c r="N55" s="1"/>
       <c r="Q55" s="4">
@@ -8490,7 +8715,7 @@
       <c r="AO55" s="20"/>
       <c r="AP55" s="20"/>
     </row>
-    <row r="56" spans="9:42">
+    <row r="56" spans="9:42" x14ac:dyDescent="0.15">
       <c r="N56" s="1"/>
       <c r="Q56" s="4">
         <f t="shared" si="10"/>
@@ -8545,7 +8770,7 @@
         <v>0.11904761904761904</v>
       </c>
     </row>
-    <row r="57" spans="9:42">
+    <row r="57" spans="9:42" x14ac:dyDescent="0.15">
       <c r="N57" s="1"/>
       <c r="Q57" s="4">
         <f t="shared" si="10"/>
@@ -8600,7 +8825,7 @@
         <v>7.1428571428571425E-2</v>
       </c>
     </row>
-    <row r="58" spans="9:42">
+    <row r="58" spans="9:42" x14ac:dyDescent="0.15">
       <c r="N58" s="1"/>
       <c r="Q58" s="4"/>
       <c r="S58" s="4">
@@ -8652,27 +8877,27 @@
         <v>157.14285714285714</v>
       </c>
     </row>
-    <row r="59" spans="9:42">
+    <row r="59" spans="9:42" x14ac:dyDescent="0.15">
       <c r="N59" s="1"/>
       <c r="Q59" s="4"/>
     </row>
-    <row r="60" spans="9:42">
+    <row r="60" spans="9:42" x14ac:dyDescent="0.15">
       <c r="N60" s="1"/>
       <c r="Q60" s="4"/>
     </row>
-    <row r="61" spans="9:42">
+    <row r="61" spans="9:42" x14ac:dyDescent="0.15">
       <c r="N61" s="1"/>
       <c r="Q61" s="4"/>
     </row>
-    <row r="62" spans="9:42">
+    <row r="62" spans="9:42" x14ac:dyDescent="0.15">
       <c r="N62" s="1"/>
       <c r="Q62" s="4"/>
     </row>
-    <row r="63" spans="9:42">
+    <row r="63" spans="9:42" x14ac:dyDescent="0.15">
       <c r="N63" s="1"/>
       <c r="Q63" s="4"/>
     </row>
-    <row r="64" spans="9:42">
+    <row r="64" spans="9:42" x14ac:dyDescent="0.15">
       <c r="N64" s="1"/>
       <c r="Q64" s="4"/>
     </row>
@@ -8684,37 +8909,37 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N10" sqref="N10"/>
+      <selection activeCell="O24" sqref="O24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="13.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.25" style="1" customWidth="1"/>
+    <col min="1" max="1" width="13.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.1640625" style="1" customWidth="1"/>
     <col min="3" max="4" width="11" style="1"/>
-    <col min="5" max="5" width="4.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="10" width="7.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="4.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="7.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="5.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="7.75" style="4" customWidth="1"/>
+    <col min="5" max="5" width="4.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="10" width="7.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="4.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="7.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="5.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7.6640625" style="4" customWidth="1"/>
     <col min="17" max="17" width="11" style="1"/>
-    <col min="18" max="18" width="10.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="20.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="20.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="20" max="16384" width="11" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.15">
       <c r="B1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:20">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -8723,7 +8948,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:20">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -8732,7 +8957,7 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="5" spans="1:20">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>18</v>
       </c>
@@ -8782,7 +9007,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="6" spans="1:20">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>69</v>
       </c>
@@ -8857,7 +9082,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="7" spans="1:20">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
         <v>70</v>
       </c>
@@ -8931,7 +9156,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="8" spans="1:20">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
         <v>51</v>
       </c>
@@ -9004,7 +9229,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:20">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
         <v>52</v>
       </c>
@@ -9078,7 +9303,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="10" spans="1:20">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
         <v>138</v>
       </c>
@@ -9151,7 +9376,7 @@
         <v>1600</v>
       </c>
     </row>
-    <row r="11" spans="1:20">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A11" s="6" t="s">
         <v>5</v>
       </c>
@@ -9226,7 +9451,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="12" spans="1:20">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A12" s="7" t="s">
         <v>10</v>
       </c>
@@ -9301,7 +9526,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:20">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A13" s="7" t="s">
         <v>11</v>
       </c>
@@ -9376,7 +9601,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="14" spans="1:20">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A14" s="7" t="s">
         <v>12</v>
       </c>
@@ -9451,7 +9676,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:20">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A15" s="7" t="s">
         <v>13</v>
       </c>
@@ -9526,7 +9751,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="16" spans="1:20">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
         <v>29</v>
       </c>
@@ -9602,7 +9827,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="17" spans="1:21">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A17" s="7" t="s">
         <v>34</v>
       </c>
@@ -9677,7 +9902,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:21">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A18" s="7" t="s">
         <v>35</v>
       </c>
@@ -9752,7 +9977,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="19" spans="1:21">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A19" s="8" t="s">
         <v>36</v>
       </c>
@@ -9822,7 +10047,7 @@
         <v>prop,806,1</v>
       </c>
     </row>
-    <row r="20" spans="1:21">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A20" s="8" t="s">
         <v>36</v>
       </c>
@@ -9896,7 +10121,7 @@
         <v>13900</v>
       </c>
     </row>
-    <row r="21" spans="1:21">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A21" s="8" t="s">
         <v>36</v>
       </c>
@@ -9966,7 +10191,7 @@
         <v>prop,806,10</v>
       </c>
     </row>
-    <row r="22" spans="1:21">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A22" s="8" t="s">
         <v>36</v>
       </c>
@@ -10036,7 +10261,7 @@
         <v>prop,807,10</v>
       </c>
     </row>
-    <row r="24" spans="1:21">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.15">
       <c r="N24" s="1" t="s">
         <v>47</v>
       </c>
@@ -10045,7 +10270,7 @@
         <v>31940</v>
       </c>
     </row>
-    <row r="25" spans="1:21">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A25" s="1" t="s">
         <v>144</v>
       </c>
@@ -10053,7 +10278,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="27" spans="1:21">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A27" s="1" t="s">
         <v>145</v>
       </c>
@@ -10065,7 +10290,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="28" spans="1:21">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A28" s="1" t="s">
         <v>147</v>
       </c>
@@ -10078,7 +10303,7 @@
       <c r="M28" s="25"/>
       <c r="N28" s="25"/>
     </row>
-    <row r="29" spans="1:21">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A29" s="1" t="s">
         <v>149</v>
       </c>
@@ -10087,7 +10312,7 @@
         <v>0.14088916718847838</v>
       </c>
     </row>
-    <row r="30" spans="1:21">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A30" s="1" t="s">
         <v>150</v>
       </c>
@@ -10104,29 +10329,29 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEF9C2D7-4F4D-40F0-BF16-963B05FFC3E4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AJ402"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="7.375" style="15" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.33203125" style="15" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8" style="15" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="8" style="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.25" style="15" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="8.875" style="15" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.1640625" style="15" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="8.83203125" style="15" bestFit="1" customWidth="1"/>
     <col min="8" max="11" width="8" style="15" bestFit="1" customWidth="1"/>
-    <col min="12" max="26" width="9" style="15"/>
-    <col min="27" max="28" width="9" style="2"/>
-    <col min="29" max="29" width="9" style="15"/>
-    <col min="30" max="33" width="9" style="2"/>
-    <col min="34" max="16384" width="9" style="15"/>
+    <col min="12" max="26" width="8.83203125" style="15"/>
+    <col min="27" max="28" width="8.83203125" style="2"/>
+    <col min="29" max="29" width="8.83203125" style="15"/>
+    <col min="30" max="33" width="8.83203125" style="2"/>
+    <col min="34" max="16384" width="8.83203125" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.15">
       <c r="A1" s="16" t="s">
         <v>57</v>
       </c>
@@ -10156,7 +10381,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="2" spans="1:36">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.15">
       <c r="A2" s="12" t="s">
         <v>37</v>
       </c>
@@ -10245,7 +10470,7 @@
         <v>4039</v>
       </c>
     </row>
-    <row r="3" spans="1:36">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.15">
       <c r="A3" s="12">
         <v>10001</v>
       </c>
@@ -10347,7 +10572,7 @@
         <v>4059</v>
       </c>
     </row>
-    <row r="4" spans="1:36">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.15">
       <c r="A4" s="12">
         <v>10002</v>
       </c>
@@ -10446,7 +10671,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:36">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.15">
       <c r="A5" s="12">
         <v>10003</v>
       </c>
@@ -10542,7 +10767,7 @@
         <v>pack,306</v>
       </c>
     </row>
-    <row r="6" spans="1:36">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.15">
       <c r="A6" s="12">
         <v>10004</v>
       </c>
@@ -10638,7 +10863,7 @@
         <v>pack,306</v>
       </c>
     </row>
-    <row r="7" spans="1:36">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.15">
       <c r="A7" s="12">
         <v>10005</v>
       </c>
@@ -10734,7 +10959,7 @@
         <v>pack,306</v>
       </c>
     </row>
-    <row r="8" spans="1:36">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.15">
       <c r="A8" s="12">
         <v>10006</v>
       </c>
@@ -10830,7 +11055,7 @@
         <v>pack,306</v>
       </c>
     </row>
-    <row r="9" spans="1:36">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.15">
       <c r="A9" s="12">
         <v>10007</v>
       </c>
@@ -10926,7 +11151,7 @@
         <v>pack,306</v>
       </c>
     </row>
-    <row r="10" spans="1:36">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.15">
       <c r="A10" s="12">
         <v>10008</v>
       </c>
@@ -11022,7 +11247,7 @@
         <v>pack,306</v>
       </c>
     </row>
-    <row r="11" spans="1:36">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.15">
       <c r="A11" s="12">
         <v>10009</v>
       </c>
@@ -11118,7 +11343,7 @@
         <v>pack,306</v>
       </c>
     </row>
-    <row r="12" spans="1:36">
+    <row r="12" spans="1:36" x14ac:dyDescent="0.15">
       <c r="A12" s="12">
         <v>10010</v>
       </c>
@@ -11214,7 +11439,7 @@
         <v>pack,306</v>
       </c>
     </row>
-    <row r="13" spans="1:36">
+    <row r="13" spans="1:36" x14ac:dyDescent="0.15">
       <c r="A13" s="12">
         <v>10011</v>
       </c>
@@ -11310,7 +11535,7 @@
         <v>pack,306</v>
       </c>
     </row>
-    <row r="14" spans="1:36">
+    <row r="14" spans="1:36" x14ac:dyDescent="0.15">
       <c r="A14" s="12">
         <v>10012</v>
       </c>
@@ -11406,7 +11631,7 @@
         <v>pack,306</v>
       </c>
     </row>
-    <row r="15" spans="1:36">
+    <row r="15" spans="1:36" x14ac:dyDescent="0.15">
       <c r="A15" s="12">
         <v>10013</v>
       </c>
@@ -11488,7 +11713,7 @@
         <v>pack,306</v>
       </c>
     </row>
-    <row r="16" spans="1:36">
+    <row r="16" spans="1:36" x14ac:dyDescent="0.15">
       <c r="A16" s="12">
         <v>10014</v>
       </c>
@@ -11570,7 +11795,7 @@
         <v>pack,306</v>
       </c>
     </row>
-    <row r="17" spans="1:33">
+    <row r="17" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A17" s="12">
         <v>10015</v>
       </c>
@@ -11652,7 +11877,7 @@
         <v>pack,306</v>
       </c>
     </row>
-    <row r="18" spans="1:33">
+    <row r="18" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A18" s="12">
         <v>10016</v>
       </c>
@@ -11715,7 +11940,7 @@
         <v>pack,306</v>
       </c>
     </row>
-    <row r="19" spans="1:33">
+    <row r="19" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A19" s="12">
         <v>10017</v>
       </c>
@@ -11778,7 +12003,7 @@
         <v>pack,306</v>
       </c>
     </row>
-    <row r="20" spans="1:33">
+    <row r="20" spans="1:33" x14ac:dyDescent="0.15">
       <c r="Z20" s="15">
         <f t="shared" si="2"/>
         <v>140181</v>
@@ -11803,7 +12028,7 @@
         <v>pack,306</v>
       </c>
     </row>
-    <row r="21" spans="1:33">
+    <row r="21" spans="1:33" x14ac:dyDescent="0.15">
       <c r="Z21" s="15">
         <f t="shared" si="2"/>
         <v>140191</v>
@@ -11828,7 +12053,7 @@
         <v>pack,306</v>
       </c>
     </row>
-    <row r="22" spans="1:33">
+    <row r="22" spans="1:33" x14ac:dyDescent="0.15">
       <c r="Z22" s="15">
         <f t="shared" si="2"/>
         <v>140201</v>
@@ -11853,7 +12078,7 @@
         <v>pack,306</v>
       </c>
     </row>
-    <row r="23" spans="1:33">
+    <row r="23" spans="1:33" x14ac:dyDescent="0.15">
       <c r="Z23" s="15">
         <f t="shared" si="2"/>
         <v>140211</v>
@@ -11878,7 +12103,7 @@
         <v>pack,306</v>
       </c>
     </row>
-    <row r="24" spans="1:33">
+    <row r="24" spans="1:33" x14ac:dyDescent="0.15">
       <c r="Z24" s="15">
         <f t="shared" si="2"/>
         <v>140221</v>
@@ -11903,7 +12128,7 @@
         <v>pack,306</v>
       </c>
     </row>
-    <row r="25" spans="1:33">
+    <row r="25" spans="1:33" x14ac:dyDescent="0.15">
       <c r="Z25" s="15">
         <f t="shared" si="2"/>
         <v>140231</v>
@@ -11928,7 +12153,7 @@
         <v>pack,306</v>
       </c>
     </row>
-    <row r="26" spans="1:33">
+    <row r="26" spans="1:33" x14ac:dyDescent="0.15">
       <c r="Z26" s="15">
         <f t="shared" si="2"/>
         <v>140241</v>
@@ -11953,7 +12178,7 @@
         <v>pack,306</v>
       </c>
     </row>
-    <row r="27" spans="1:33">
+    <row r="27" spans="1:33" x14ac:dyDescent="0.15">
       <c r="Z27" s="15">
         <f t="shared" si="2"/>
         <v>140251</v>
@@ -11978,7 +12203,7 @@
         <v>pack,306</v>
       </c>
     </row>
-    <row r="28" spans="1:33">
+    <row r="28" spans="1:33" x14ac:dyDescent="0.15">
       <c r="Z28" s="15">
         <f t="shared" si="2"/>
         <v>140261</v>
@@ -12003,7 +12228,7 @@
         <v>pack,306</v>
       </c>
     </row>
-    <row r="29" spans="1:33">
+    <row r="29" spans="1:33" x14ac:dyDescent="0.15">
       <c r="Z29" s="15">
         <f t="shared" si="2"/>
         <v>140271</v>
@@ -12028,7 +12253,7 @@
         <v>pack,306</v>
       </c>
     </row>
-    <row r="30" spans="1:33">
+    <row r="30" spans="1:33" x14ac:dyDescent="0.15">
       <c r="Z30" s="15">
         <f t="shared" si="2"/>
         <v>140281</v>
@@ -12053,7 +12278,7 @@
         <v>pack,306</v>
       </c>
     </row>
-    <row r="31" spans="1:33">
+    <row r="31" spans="1:33" x14ac:dyDescent="0.15">
       <c r="Z31" s="15">
         <f t="shared" si="2"/>
         <v>140291</v>
@@ -12078,7 +12303,7 @@
         <v>pack,306</v>
       </c>
     </row>
-    <row r="32" spans="1:33">
+    <row r="32" spans="1:33" x14ac:dyDescent="0.15">
       <c r="Z32" s="15">
         <f t="shared" si="2"/>
         <v>140301</v>
@@ -12103,7 +12328,7 @@
         <v>pack,306</v>
       </c>
     </row>
-    <row r="33" spans="26:33">
+    <row r="33" spans="26:33" x14ac:dyDescent="0.15">
       <c r="Z33" s="15">
         <f t="shared" si="2"/>
         <v>140311</v>
@@ -12128,7 +12353,7 @@
         <v>pack,306</v>
       </c>
     </row>
-    <row r="34" spans="26:33">
+    <row r="34" spans="26:33" x14ac:dyDescent="0.15">
       <c r="Z34" s="15">
         <f t="shared" si="2"/>
         <v>140321</v>
@@ -12153,7 +12378,7 @@
         <v>pack,306</v>
       </c>
     </row>
-    <row r="35" spans="26:33">
+    <row r="35" spans="26:33" x14ac:dyDescent="0.15">
       <c r="Z35" s="15">
         <f t="shared" si="2"/>
         <v>140331</v>
@@ -12178,7 +12403,7 @@
         <v>pack,306</v>
       </c>
     </row>
-    <row r="36" spans="26:33">
+    <row r="36" spans="26:33" x14ac:dyDescent="0.15">
       <c r="Z36" s="15">
         <f t="shared" si="2"/>
         <v>140341</v>
@@ -12203,7 +12428,7 @@
         <v>pack,306</v>
       </c>
     </row>
-    <row r="37" spans="26:33">
+    <row r="37" spans="26:33" x14ac:dyDescent="0.15">
       <c r="Z37" s="15">
         <f t="shared" si="2"/>
         <v>140351</v>
@@ -12228,7 +12453,7 @@
         <v>pack,306</v>
       </c>
     </row>
-    <row r="38" spans="26:33">
+    <row r="38" spans="26:33" x14ac:dyDescent="0.15">
       <c r="Z38" s="15">
         <f t="shared" si="2"/>
         <v>140361</v>
@@ -12253,7 +12478,7 @@
         <v>pack,306</v>
       </c>
     </row>
-    <row r="39" spans="26:33">
+    <row r="39" spans="26:33" x14ac:dyDescent="0.15">
       <c r="Z39" s="15">
         <f t="shared" si="2"/>
         <v>140371</v>
@@ -12278,7 +12503,7 @@
         <v>pack,306</v>
       </c>
     </row>
-    <row r="40" spans="26:33">
+    <row r="40" spans="26:33" x14ac:dyDescent="0.15">
       <c r="Z40" s="15">
         <f t="shared" si="2"/>
         <v>140381</v>
@@ -12303,7 +12528,7 @@
         <v>pack,306</v>
       </c>
     </row>
-    <row r="41" spans="26:33">
+    <row r="41" spans="26:33" x14ac:dyDescent="0.15">
       <c r="Z41" s="15">
         <f t="shared" si="2"/>
         <v>140391</v>
@@ -12328,7 +12553,7 @@
         <v>pack,307</v>
       </c>
     </row>
-    <row r="42" spans="26:33">
+    <row r="42" spans="26:33" x14ac:dyDescent="0.15">
       <c r="Z42" s="15">
         <f t="shared" si="2"/>
         <v>140401</v>
@@ -12353,7 +12578,7 @@
         <v>pack,307</v>
       </c>
     </row>
-    <row r="43" spans="26:33">
+    <row r="43" spans="26:33" x14ac:dyDescent="0.15">
       <c r="Z43" s="15">
         <f t="shared" si="2"/>
         <v>140411</v>
@@ -12378,7 +12603,7 @@
         <v>pack,307</v>
       </c>
     </row>
-    <row r="44" spans="26:33">
+    <row r="44" spans="26:33" x14ac:dyDescent="0.15">
       <c r="Z44" s="15">
         <f t="shared" si="2"/>
         <v>140421</v>
@@ -12403,7 +12628,7 @@
         <v>pack,307</v>
       </c>
     </row>
-    <row r="45" spans="26:33">
+    <row r="45" spans="26:33" x14ac:dyDescent="0.15">
       <c r="Z45" s="15">
         <f t="shared" si="2"/>
         <v>140431</v>
@@ -12428,7 +12653,7 @@
         <v>pack,307</v>
       </c>
     </row>
-    <row r="46" spans="26:33">
+    <row r="46" spans="26:33" x14ac:dyDescent="0.15">
       <c r="Z46" s="15">
         <f t="shared" si="2"/>
         <v>140441</v>
@@ -12453,7 +12678,7 @@
         <v>pack,307</v>
       </c>
     </row>
-    <row r="47" spans="26:33">
+    <row r="47" spans="26:33" x14ac:dyDescent="0.15">
       <c r="Z47" s="15">
         <f t="shared" si="2"/>
         <v>140451</v>
@@ -12478,7 +12703,7 @@
         <v>pack,307</v>
       </c>
     </row>
-    <row r="48" spans="26:33">
+    <row r="48" spans="26:33" x14ac:dyDescent="0.15">
       <c r="Z48" s="15">
         <f t="shared" si="2"/>
         <v>140461</v>
@@ -12503,7 +12728,7 @@
         <v>pack,307</v>
       </c>
     </row>
-    <row r="49" spans="26:33">
+    <row r="49" spans="26:33" x14ac:dyDescent="0.15">
       <c r="Z49" s="15">
         <f t="shared" si="2"/>
         <v>140471</v>
@@ -12528,7 +12753,7 @@
         <v>pack,307</v>
       </c>
     </row>
-    <row r="50" spans="26:33">
+    <row r="50" spans="26:33" x14ac:dyDescent="0.15">
       <c r="Z50" s="15">
         <f t="shared" si="2"/>
         <v>140481</v>
@@ -12553,7 +12778,7 @@
         <v>pack,307</v>
       </c>
     </row>
-    <row r="51" spans="26:33">
+    <row r="51" spans="26:33" x14ac:dyDescent="0.15">
       <c r="Z51" s="15">
         <f t="shared" si="2"/>
         <v>140491</v>
@@ -12578,7 +12803,7 @@
         <v>pack,307</v>
       </c>
     </row>
-    <row r="52" spans="26:33">
+    <row r="52" spans="26:33" x14ac:dyDescent="0.15">
       <c r="Z52" s="15">
         <f t="shared" si="2"/>
         <v>140501</v>
@@ -12603,7 +12828,7 @@
         <v>pack,307</v>
       </c>
     </row>
-    <row r="53" spans="26:33">
+    <row r="53" spans="26:33" x14ac:dyDescent="0.15">
       <c r="Z53" s="15">
         <f t="shared" si="2"/>
         <v>140511</v>
@@ -12628,7 +12853,7 @@
         <v>pack,307</v>
       </c>
     </row>
-    <row r="54" spans="26:33">
+    <row r="54" spans="26:33" x14ac:dyDescent="0.15">
       <c r="Z54" s="15">
         <f t="shared" si="2"/>
         <v>140521</v>
@@ -12653,7 +12878,7 @@
         <v>pack,307</v>
       </c>
     </row>
-    <row r="55" spans="26:33">
+    <row r="55" spans="26:33" x14ac:dyDescent="0.15">
       <c r="Z55" s="15">
         <f t="shared" si="2"/>
         <v>140531</v>
@@ -12678,7 +12903,7 @@
         <v>pack,307</v>
       </c>
     </row>
-    <row r="56" spans="26:33">
+    <row r="56" spans="26:33" x14ac:dyDescent="0.15">
       <c r="Z56" s="15">
         <f t="shared" si="2"/>
         <v>140541</v>
@@ -12703,7 +12928,7 @@
         <v>pack,307</v>
       </c>
     </row>
-    <row r="57" spans="26:33">
+    <row r="57" spans="26:33" x14ac:dyDescent="0.15">
       <c r="Z57" s="15">
         <f t="shared" si="2"/>
         <v>140551</v>
@@ -12728,7 +12953,7 @@
         <v>pack,307</v>
       </c>
     </row>
-    <row r="58" spans="26:33">
+    <row r="58" spans="26:33" x14ac:dyDescent="0.15">
       <c r="Z58" s="15">
         <f t="shared" si="2"/>
         <v>140561</v>
@@ -12753,7 +12978,7 @@
         <v>pack,307</v>
       </c>
     </row>
-    <row r="59" spans="26:33">
+    <row r="59" spans="26:33" x14ac:dyDescent="0.15">
       <c r="Z59" s="15">
         <f t="shared" si="2"/>
         <v>140571</v>
@@ -12778,7 +13003,7 @@
         <v>pack,307</v>
       </c>
     </row>
-    <row r="60" spans="26:33">
+    <row r="60" spans="26:33" x14ac:dyDescent="0.15">
       <c r="Z60" s="15">
         <f t="shared" si="2"/>
         <v>140581</v>
@@ -12803,7 +13028,7 @@
         <v>pack,307</v>
       </c>
     </row>
-    <row r="61" spans="26:33">
+    <row r="61" spans="26:33" x14ac:dyDescent="0.15">
       <c r="Z61" s="15">
         <f t="shared" si="2"/>
         <v>140591</v>
@@ -12828,7 +13053,7 @@
         <v>pack,308</v>
       </c>
     </row>
-    <row r="62" spans="26:33">
+    <row r="62" spans="26:33" x14ac:dyDescent="0.15">
       <c r="Z62" s="15">
         <f t="shared" si="2"/>
         <v>140601</v>
@@ -12853,7 +13078,7 @@
         <v>pack,308</v>
       </c>
     </row>
-    <row r="63" spans="26:33">
+    <row r="63" spans="26:33" x14ac:dyDescent="0.15">
       <c r="Z63" s="15">
         <f t="shared" si="2"/>
         <v>140611</v>
@@ -12878,7 +13103,7 @@
         <v>pack,308</v>
       </c>
     </row>
-    <row r="64" spans="26:33">
+    <row r="64" spans="26:33" x14ac:dyDescent="0.15">
       <c r="Z64" s="15">
         <f t="shared" si="2"/>
         <v>140621</v>
@@ -12903,7 +13128,7 @@
         <v>pack,308</v>
       </c>
     </row>
-    <row r="65" spans="26:33">
+    <row r="65" spans="26:33" x14ac:dyDescent="0.15">
       <c r="Z65" s="15">
         <f t="shared" si="2"/>
         <v>140631</v>
@@ -12928,7 +13153,7 @@
         <v>pack,308</v>
       </c>
     </row>
-    <row r="66" spans="26:33">
+    <row r="66" spans="26:33" x14ac:dyDescent="0.15">
       <c r="Z66" s="15">
         <f t="shared" si="2"/>
         <v>140641</v>
@@ -12953,7 +13178,7 @@
         <v>pack,308</v>
       </c>
     </row>
-    <row r="67" spans="26:33">
+    <row r="67" spans="26:33" x14ac:dyDescent="0.15">
       <c r="Z67" s="15">
         <f t="shared" si="2"/>
         <v>140651</v>
@@ -12978,7 +13203,7 @@
         <v>pack,308</v>
       </c>
     </row>
-    <row r="68" spans="26:33">
+    <row r="68" spans="26:33" x14ac:dyDescent="0.15">
       <c r="Z68" s="15">
         <f t="shared" ref="Z68:Z131" si="4">100000+AA68*10+AB68</f>
         <v>140661</v>
@@ -13003,7 +13228,7 @@
         <v>pack,308</v>
       </c>
     </row>
-    <row r="69" spans="26:33">
+    <row r="69" spans="26:33" x14ac:dyDescent="0.15">
       <c r="Z69" s="15">
         <f t="shared" si="4"/>
         <v>140671</v>
@@ -13028,7 +13253,7 @@
         <v>pack,308</v>
       </c>
     </row>
-    <row r="70" spans="26:33">
+    <row r="70" spans="26:33" x14ac:dyDescent="0.15">
       <c r="Z70" s="15">
         <f t="shared" si="4"/>
         <v>140681</v>
@@ -13053,7 +13278,7 @@
         <v>pack,308</v>
       </c>
     </row>
-    <row r="71" spans="26:33">
+    <row r="71" spans="26:33" x14ac:dyDescent="0.15">
       <c r="Z71" s="15">
         <f t="shared" si="4"/>
         <v>140691</v>
@@ -13078,7 +13303,7 @@
         <v>pack,308</v>
       </c>
     </row>
-    <row r="72" spans="26:33">
+    <row r="72" spans="26:33" x14ac:dyDescent="0.15">
       <c r="Z72" s="15">
         <f t="shared" si="4"/>
         <v>140701</v>
@@ -13103,7 +13328,7 @@
         <v>pack,308</v>
       </c>
     </row>
-    <row r="73" spans="26:33">
+    <row r="73" spans="26:33" x14ac:dyDescent="0.15">
       <c r="Z73" s="15">
         <f t="shared" si="4"/>
         <v>140711</v>
@@ -13128,7 +13353,7 @@
         <v>pack,308</v>
       </c>
     </row>
-    <row r="74" spans="26:33">
+    <row r="74" spans="26:33" x14ac:dyDescent="0.15">
       <c r="Z74" s="15">
         <f t="shared" si="4"/>
         <v>140721</v>
@@ -13153,7 +13378,7 @@
         <v>pack,308</v>
       </c>
     </row>
-    <row r="75" spans="26:33">
+    <row r="75" spans="26:33" x14ac:dyDescent="0.15">
       <c r="Z75" s="15">
         <f t="shared" si="4"/>
         <v>140731</v>
@@ -13178,7 +13403,7 @@
         <v>pack,308</v>
       </c>
     </row>
-    <row r="76" spans="26:33">
+    <row r="76" spans="26:33" x14ac:dyDescent="0.15">
       <c r="Z76" s="15">
         <f t="shared" si="4"/>
         <v>140741</v>
@@ -13203,7 +13428,7 @@
         <v>pack,308</v>
       </c>
     </row>
-    <row r="77" spans="26:33">
+    <row r="77" spans="26:33" x14ac:dyDescent="0.15">
       <c r="Z77" s="15">
         <f t="shared" si="4"/>
         <v>140751</v>
@@ -13228,7 +13453,7 @@
         <v>pack,308</v>
       </c>
     </row>
-    <row r="78" spans="26:33">
+    <row r="78" spans="26:33" x14ac:dyDescent="0.15">
       <c r="Z78" s="15">
         <f t="shared" si="4"/>
         <v>140761</v>
@@ -13253,7 +13478,7 @@
         <v>pack,308</v>
       </c>
     </row>
-    <row r="79" spans="26:33">
+    <row r="79" spans="26:33" x14ac:dyDescent="0.15">
       <c r="Z79" s="15">
         <f t="shared" si="4"/>
         <v>140771</v>
@@ -13278,7 +13503,7 @@
         <v>pack,308</v>
       </c>
     </row>
-    <row r="80" spans="26:33">
+    <row r="80" spans="26:33" x14ac:dyDescent="0.15">
       <c r="Z80" s="15">
         <f t="shared" si="4"/>
         <v>140781</v>
@@ -13303,7 +13528,7 @@
         <v>pack,308</v>
       </c>
     </row>
-    <row r="81" spans="26:33">
+    <row r="81" spans="26:33" x14ac:dyDescent="0.15">
       <c r="Z81" s="15">
         <f t="shared" si="4"/>
         <v>140791</v>
@@ -13328,7 +13553,7 @@
         <v>pack,308</v>
       </c>
     </row>
-    <row r="82" spans="26:33">
+    <row r="82" spans="26:33" x14ac:dyDescent="0.15">
       <c r="Z82" s="15">
         <f t="shared" si="4"/>
         <v>140801</v>
@@ -13353,7 +13578,7 @@
         <v>pack,308</v>
       </c>
     </row>
-    <row r="83" spans="26:33">
+    <row r="83" spans="26:33" x14ac:dyDescent="0.15">
       <c r="Z83" s="15">
         <f t="shared" si="4"/>
         <v>140811</v>
@@ -13378,7 +13603,7 @@
         <v>pack,308</v>
       </c>
     </row>
-    <row r="84" spans="26:33">
+    <row r="84" spans="26:33" x14ac:dyDescent="0.15">
       <c r="Z84" s="15">
         <f t="shared" si="4"/>
         <v>140821</v>
@@ -13403,7 +13628,7 @@
         <v>pack,308</v>
       </c>
     </row>
-    <row r="85" spans="26:33">
+    <row r="85" spans="26:33" x14ac:dyDescent="0.15">
       <c r="Z85" s="15">
         <f t="shared" si="4"/>
         <v>140831</v>
@@ -13428,7 +13653,7 @@
         <v>pack,308</v>
       </c>
     </row>
-    <row r="86" spans="26:33">
+    <row r="86" spans="26:33" x14ac:dyDescent="0.15">
       <c r="Z86" s="15">
         <f t="shared" si="4"/>
         <v>140841</v>
@@ -13453,7 +13678,7 @@
         <v>pack,308</v>
       </c>
     </row>
-    <row r="87" spans="26:33">
+    <row r="87" spans="26:33" x14ac:dyDescent="0.15">
       <c r="Z87" s="15">
         <f t="shared" si="4"/>
         <v>140851</v>
@@ -13478,7 +13703,7 @@
         <v>pack,308</v>
       </c>
     </row>
-    <row r="88" spans="26:33">
+    <row r="88" spans="26:33" x14ac:dyDescent="0.15">
       <c r="Z88" s="15">
         <f t="shared" si="4"/>
         <v>140861</v>
@@ -13503,7 +13728,7 @@
         <v>pack,308</v>
       </c>
     </row>
-    <row r="89" spans="26:33">
+    <row r="89" spans="26:33" x14ac:dyDescent="0.15">
       <c r="Z89" s="15">
         <f t="shared" si="4"/>
         <v>140871</v>
@@ -13528,7 +13753,7 @@
         <v>pack,308</v>
       </c>
     </row>
-    <row r="90" spans="26:33">
+    <row r="90" spans="26:33" x14ac:dyDescent="0.15">
       <c r="Z90" s="15">
         <f t="shared" si="4"/>
         <v>140881</v>
@@ -13553,7 +13778,7 @@
         <v>pack,308</v>
       </c>
     </row>
-    <row r="91" spans="26:33">
+    <row r="91" spans="26:33" x14ac:dyDescent="0.15">
       <c r="Z91" s="15">
         <f t="shared" si="4"/>
         <v>140891</v>
@@ -13578,7 +13803,7 @@
         <v>pack,308</v>
       </c>
     </row>
-    <row r="92" spans="26:33">
+    <row r="92" spans="26:33" x14ac:dyDescent="0.15">
       <c r="Z92" s="15">
         <f t="shared" si="4"/>
         <v>140901</v>
@@ -13603,7 +13828,7 @@
         <v>pack,308</v>
       </c>
     </row>
-    <row r="93" spans="26:33">
+    <row r="93" spans="26:33" x14ac:dyDescent="0.15">
       <c r="Z93" s="15">
         <f t="shared" si="4"/>
         <v>140911</v>
@@ -13628,7 +13853,7 @@
         <v>pack,308</v>
       </c>
     </row>
-    <row r="94" spans="26:33">
+    <row r="94" spans="26:33" x14ac:dyDescent="0.15">
       <c r="Z94" s="15">
         <f t="shared" si="4"/>
         <v>140921</v>
@@ -13653,7 +13878,7 @@
         <v>pack,308</v>
       </c>
     </row>
-    <row r="95" spans="26:33">
+    <row r="95" spans="26:33" x14ac:dyDescent="0.15">
       <c r="Z95" s="15">
         <f t="shared" si="4"/>
         <v>140931</v>
@@ -13678,7 +13903,7 @@
         <v>pack,308</v>
       </c>
     </row>
-    <row r="96" spans="26:33">
+    <row r="96" spans="26:33" x14ac:dyDescent="0.15">
       <c r="Z96" s="15">
         <f t="shared" si="4"/>
         <v>140941</v>
@@ -13703,7 +13928,7 @@
         <v>pack,308</v>
       </c>
     </row>
-    <row r="97" spans="26:33">
+    <row r="97" spans="26:33" x14ac:dyDescent="0.15">
       <c r="Z97" s="15">
         <f t="shared" si="4"/>
         <v>140951</v>
@@ -13728,7 +13953,7 @@
         <v>pack,308</v>
       </c>
     </row>
-    <row r="98" spans="26:33">
+    <row r="98" spans="26:33" x14ac:dyDescent="0.15">
       <c r="Z98" s="15">
         <f t="shared" si="4"/>
         <v>140961</v>
@@ -13753,7 +13978,7 @@
         <v>pack,308</v>
       </c>
     </row>
-    <row r="99" spans="26:33">
+    <row r="99" spans="26:33" x14ac:dyDescent="0.15">
       <c r="Z99" s="15">
         <f t="shared" si="4"/>
         <v>140971</v>
@@ -13778,7 +14003,7 @@
         <v>pack,308</v>
       </c>
     </row>
-    <row r="100" spans="26:33">
+    <row r="100" spans="26:33" x14ac:dyDescent="0.15">
       <c r="Z100" s="15">
         <f t="shared" si="4"/>
         <v>140981</v>
@@ -13803,7 +14028,7 @@
         <v>pack,308</v>
       </c>
     </row>
-    <row r="101" spans="26:33">
+    <row r="101" spans="26:33" x14ac:dyDescent="0.15">
       <c r="Z101" s="15">
         <f t="shared" si="4"/>
         <v>140991</v>
@@ -13828,7 +14053,7 @@
         <v>pack,308</v>
       </c>
     </row>
-    <row r="102" spans="26:33">
+    <row r="102" spans="26:33" x14ac:dyDescent="0.15">
       <c r="Z102" s="15">
         <f t="shared" si="4"/>
         <v>141001</v>
@@ -13853,7 +14078,7 @@
         <v>pack,308</v>
       </c>
     </row>
-    <row r="103" spans="26:33">
+    <row r="103" spans="26:33" x14ac:dyDescent="0.15">
       <c r="Z103" s="15">
         <f t="shared" si="4"/>
         <v>140012</v>
@@ -13880,7 +14105,7 @@
         <v>pack,309</v>
       </c>
     </row>
-    <row r="104" spans="26:33">
+    <row r="104" spans="26:33" x14ac:dyDescent="0.15">
       <c r="Z104" s="15">
         <f t="shared" si="4"/>
         <v>140022</v>
@@ -13907,7 +14132,7 @@
         <v>pack,309</v>
       </c>
     </row>
-    <row r="105" spans="26:33">
+    <row r="105" spans="26:33" x14ac:dyDescent="0.15">
       <c r="Z105" s="15">
         <f t="shared" si="4"/>
         <v>140032</v>
@@ -13934,7 +14159,7 @@
         <v>pack,309</v>
       </c>
     </row>
-    <row r="106" spans="26:33">
+    <row r="106" spans="26:33" x14ac:dyDescent="0.15">
       <c r="Z106" s="15">
         <f t="shared" si="4"/>
         <v>140042</v>
@@ -13961,7 +14186,7 @@
         <v>pack,309</v>
       </c>
     </row>
-    <row r="107" spans="26:33">
+    <row r="107" spans="26:33" x14ac:dyDescent="0.15">
       <c r="Z107" s="15">
         <f t="shared" si="4"/>
         <v>140052</v>
@@ -13988,7 +14213,7 @@
         <v>pack,309</v>
       </c>
     </row>
-    <row r="108" spans="26:33">
+    <row r="108" spans="26:33" x14ac:dyDescent="0.15">
       <c r="Z108" s="15">
         <f t="shared" si="4"/>
         <v>140062</v>
@@ -14015,7 +14240,7 @@
         <v>pack,309</v>
       </c>
     </row>
-    <row r="109" spans="26:33">
+    <row r="109" spans="26:33" x14ac:dyDescent="0.15">
       <c r="Z109" s="15">
         <f t="shared" si="4"/>
         <v>140072</v>
@@ -14042,7 +14267,7 @@
         <v>pack,309</v>
       </c>
     </row>
-    <row r="110" spans="26:33">
+    <row r="110" spans="26:33" x14ac:dyDescent="0.15">
       <c r="Z110" s="15">
         <f t="shared" si="4"/>
         <v>140082</v>
@@ -14069,7 +14294,7 @@
         <v>pack,309</v>
       </c>
     </row>
-    <row r="111" spans="26:33">
+    <row r="111" spans="26:33" x14ac:dyDescent="0.15">
       <c r="Z111" s="15">
         <f t="shared" si="4"/>
         <v>140092</v>
@@ -14096,7 +14321,7 @@
         <v>pack,309</v>
       </c>
     </row>
-    <row r="112" spans="26:33">
+    <row r="112" spans="26:33" x14ac:dyDescent="0.15">
       <c r="Z112" s="15">
         <f t="shared" si="4"/>
         <v>140102</v>
@@ -14123,7 +14348,7 @@
         <v>pack,309</v>
       </c>
     </row>
-    <row r="113" spans="26:33">
+    <row r="113" spans="26:33" x14ac:dyDescent="0.15">
       <c r="Z113" s="15">
         <f t="shared" si="4"/>
         <v>140112</v>
@@ -14150,7 +14375,7 @@
         <v>pack,309</v>
       </c>
     </row>
-    <row r="114" spans="26:33">
+    <row r="114" spans="26:33" x14ac:dyDescent="0.15">
       <c r="Z114" s="15">
         <f t="shared" si="4"/>
         <v>140122</v>
@@ -14177,7 +14402,7 @@
         <v>pack,309</v>
       </c>
     </row>
-    <row r="115" spans="26:33">
+    <row r="115" spans="26:33" x14ac:dyDescent="0.15">
       <c r="Z115" s="15">
         <f t="shared" si="4"/>
         <v>140132</v>
@@ -14204,7 +14429,7 @@
         <v>pack,309</v>
       </c>
     </row>
-    <row r="116" spans="26:33">
+    <row r="116" spans="26:33" x14ac:dyDescent="0.15">
       <c r="Z116" s="15">
         <f t="shared" si="4"/>
         <v>140142</v>
@@ -14231,7 +14456,7 @@
         <v>pack,309</v>
       </c>
     </row>
-    <row r="117" spans="26:33">
+    <row r="117" spans="26:33" x14ac:dyDescent="0.15">
       <c r="Z117" s="15">
         <f t="shared" si="4"/>
         <v>140152</v>
@@ -14258,7 +14483,7 @@
         <v>pack,309</v>
       </c>
     </row>
-    <row r="118" spans="26:33">
+    <row r="118" spans="26:33" x14ac:dyDescent="0.15">
       <c r="Z118" s="15">
         <f t="shared" si="4"/>
         <v>140162</v>
@@ -14285,7 +14510,7 @@
         <v>pack,309</v>
       </c>
     </row>
-    <row r="119" spans="26:33">
+    <row r="119" spans="26:33" x14ac:dyDescent="0.15">
       <c r="Z119" s="15">
         <f t="shared" si="4"/>
         <v>140172</v>
@@ -14312,7 +14537,7 @@
         <v>pack,309</v>
       </c>
     </row>
-    <row r="120" spans="26:33">
+    <row r="120" spans="26:33" x14ac:dyDescent="0.15">
       <c r="Z120" s="15">
         <f t="shared" si="4"/>
         <v>140182</v>
@@ -14339,7 +14564,7 @@
         <v>pack,309</v>
       </c>
     </row>
-    <row r="121" spans="26:33">
+    <row r="121" spans="26:33" x14ac:dyDescent="0.15">
       <c r="Z121" s="15">
         <f t="shared" si="4"/>
         <v>140192</v>
@@ -14366,7 +14591,7 @@
         <v>pack,309</v>
       </c>
     </row>
-    <row r="122" spans="26:33">
+    <row r="122" spans="26:33" x14ac:dyDescent="0.15">
       <c r="Z122" s="15">
         <f t="shared" si="4"/>
         <v>140202</v>
@@ -14393,7 +14618,7 @@
         <v>pack,309</v>
       </c>
     </row>
-    <row r="123" spans="26:33">
+    <row r="123" spans="26:33" x14ac:dyDescent="0.15">
       <c r="Z123" s="15">
         <f t="shared" si="4"/>
         <v>140212</v>
@@ -14420,7 +14645,7 @@
         <v>pack,309</v>
       </c>
     </row>
-    <row r="124" spans="26:33">
+    <row r="124" spans="26:33" x14ac:dyDescent="0.15">
       <c r="Z124" s="15">
         <f t="shared" si="4"/>
         <v>140222</v>
@@ -14447,7 +14672,7 @@
         <v>pack,309</v>
       </c>
     </row>
-    <row r="125" spans="26:33">
+    <row r="125" spans="26:33" x14ac:dyDescent="0.15">
       <c r="Z125" s="15">
         <f t="shared" si="4"/>
         <v>140232</v>
@@ -14474,7 +14699,7 @@
         <v>pack,309</v>
       </c>
     </row>
-    <row r="126" spans="26:33">
+    <row r="126" spans="26:33" x14ac:dyDescent="0.15">
       <c r="Z126" s="15">
         <f t="shared" si="4"/>
         <v>140242</v>
@@ -14501,7 +14726,7 @@
         <v>pack,309</v>
       </c>
     </row>
-    <row r="127" spans="26:33">
+    <row r="127" spans="26:33" x14ac:dyDescent="0.15">
       <c r="Z127" s="15">
         <f t="shared" si="4"/>
         <v>140252</v>
@@ -14528,7 +14753,7 @@
         <v>pack,309</v>
       </c>
     </row>
-    <row r="128" spans="26:33">
+    <row r="128" spans="26:33" x14ac:dyDescent="0.15">
       <c r="Z128" s="15">
         <f t="shared" si="4"/>
         <v>140262</v>
@@ -14555,7 +14780,7 @@
         <v>pack,309</v>
       </c>
     </row>
-    <row r="129" spans="26:33">
+    <row r="129" spans="26:33" x14ac:dyDescent="0.15">
       <c r="Z129" s="15">
         <f t="shared" si="4"/>
         <v>140272</v>
@@ -14582,7 +14807,7 @@
         <v>pack,309</v>
       </c>
     </row>
-    <row r="130" spans="26:33">
+    <row r="130" spans="26:33" x14ac:dyDescent="0.15">
       <c r="Z130" s="15">
         <f t="shared" si="4"/>
         <v>140282</v>
@@ -14609,7 +14834,7 @@
         <v>pack,309</v>
       </c>
     </row>
-    <row r="131" spans="26:33">
+    <row r="131" spans="26:33" x14ac:dyDescent="0.15">
       <c r="Z131" s="15">
         <f t="shared" si="4"/>
         <v>140292</v>
@@ -14636,7 +14861,7 @@
         <v>pack,309</v>
       </c>
     </row>
-    <row r="132" spans="26:33">
+    <row r="132" spans="26:33" x14ac:dyDescent="0.15">
       <c r="Z132" s="15">
         <f t="shared" ref="Z132:Z195" si="8">100000+AA132*10+AB132</f>
         <v>140302</v>
@@ -14663,7 +14888,7 @@
         <v>pack,309</v>
       </c>
     </row>
-    <row r="133" spans="26:33">
+    <row r="133" spans="26:33" x14ac:dyDescent="0.15">
       <c r="Z133" s="15">
         <f t="shared" si="8"/>
         <v>140312</v>
@@ -14690,7 +14915,7 @@
         <v>pack,309</v>
       </c>
     </row>
-    <row r="134" spans="26:33">
+    <row r="134" spans="26:33" x14ac:dyDescent="0.15">
       <c r="Z134" s="15">
         <f t="shared" si="8"/>
         <v>140322</v>
@@ -14717,7 +14942,7 @@
         <v>pack,309</v>
       </c>
     </row>
-    <row r="135" spans="26:33">
+    <row r="135" spans="26:33" x14ac:dyDescent="0.15">
       <c r="Z135" s="15">
         <f t="shared" si="8"/>
         <v>140332</v>
@@ -14744,7 +14969,7 @@
         <v>pack,309</v>
       </c>
     </row>
-    <row r="136" spans="26:33">
+    <row r="136" spans="26:33" x14ac:dyDescent="0.15">
       <c r="Z136" s="15">
         <f t="shared" si="8"/>
         <v>140342</v>
@@ -14771,7 +14996,7 @@
         <v>pack,309</v>
       </c>
     </row>
-    <row r="137" spans="26:33">
+    <row r="137" spans="26:33" x14ac:dyDescent="0.15">
       <c r="Z137" s="15">
         <f t="shared" si="8"/>
         <v>140352</v>
@@ -14798,7 +15023,7 @@
         <v>pack,309</v>
       </c>
     </row>
-    <row r="138" spans="26:33">
+    <row r="138" spans="26:33" x14ac:dyDescent="0.15">
       <c r="Z138" s="15">
         <f t="shared" si="8"/>
         <v>140362</v>
@@ -14825,7 +15050,7 @@
         <v>pack,309</v>
       </c>
     </row>
-    <row r="139" spans="26:33">
+    <row r="139" spans="26:33" x14ac:dyDescent="0.15">
       <c r="Z139" s="15">
         <f t="shared" si="8"/>
         <v>140372</v>
@@ -14852,7 +15077,7 @@
         <v>pack,309</v>
       </c>
     </row>
-    <row r="140" spans="26:33">
+    <row r="140" spans="26:33" x14ac:dyDescent="0.15">
       <c r="Z140" s="15">
         <f t="shared" si="8"/>
         <v>140382</v>
@@ -14879,7 +15104,7 @@
         <v>pack,309</v>
       </c>
     </row>
-    <row r="141" spans="26:33">
+    <row r="141" spans="26:33" x14ac:dyDescent="0.15">
       <c r="Z141" s="15">
         <f t="shared" si="8"/>
         <v>140392</v>
@@ -14906,7 +15131,7 @@
         <v>pack,310</v>
       </c>
     </row>
-    <row r="142" spans="26:33">
+    <row r="142" spans="26:33" x14ac:dyDescent="0.15">
       <c r="Z142" s="15">
         <f t="shared" si="8"/>
         <v>140402</v>
@@ -14933,7 +15158,7 @@
         <v>pack,310</v>
       </c>
     </row>
-    <row r="143" spans="26:33">
+    <row r="143" spans="26:33" x14ac:dyDescent="0.15">
       <c r="Z143" s="15">
         <f t="shared" si="8"/>
         <v>140412</v>
@@ -14960,7 +15185,7 @@
         <v>pack,310</v>
       </c>
     </row>
-    <row r="144" spans="26:33">
+    <row r="144" spans="26:33" x14ac:dyDescent="0.15">
       <c r="Z144" s="15">
         <f t="shared" si="8"/>
         <v>140422</v>
@@ -14987,7 +15212,7 @@
         <v>pack,310</v>
       </c>
     </row>
-    <row r="145" spans="26:33">
+    <row r="145" spans="26:33" x14ac:dyDescent="0.15">
       <c r="Z145" s="15">
         <f t="shared" si="8"/>
         <v>140432</v>
@@ -15014,7 +15239,7 @@
         <v>pack,310</v>
       </c>
     </row>
-    <row r="146" spans="26:33">
+    <row r="146" spans="26:33" x14ac:dyDescent="0.15">
       <c r="Z146" s="15">
         <f t="shared" si="8"/>
         <v>140442</v>
@@ -15041,7 +15266,7 @@
         <v>pack,310</v>
       </c>
     </row>
-    <row r="147" spans="26:33">
+    <row r="147" spans="26:33" x14ac:dyDescent="0.15">
       <c r="Z147" s="15">
         <f t="shared" si="8"/>
         <v>140452</v>
@@ -15068,7 +15293,7 @@
         <v>pack,310</v>
       </c>
     </row>
-    <row r="148" spans="26:33">
+    <row r="148" spans="26:33" x14ac:dyDescent="0.15">
       <c r="Z148" s="15">
         <f t="shared" si="8"/>
         <v>140462</v>
@@ -15095,7 +15320,7 @@
         <v>pack,310</v>
       </c>
     </row>
-    <row r="149" spans="26:33">
+    <row r="149" spans="26:33" x14ac:dyDescent="0.15">
       <c r="Z149" s="15">
         <f t="shared" si="8"/>
         <v>140472</v>
@@ -15122,7 +15347,7 @@
         <v>pack,310</v>
       </c>
     </row>
-    <row r="150" spans="26:33">
+    <row r="150" spans="26:33" x14ac:dyDescent="0.15">
       <c r="Z150" s="15">
         <f t="shared" si="8"/>
         <v>140482</v>
@@ -15149,7 +15374,7 @@
         <v>pack,310</v>
       </c>
     </row>
-    <row r="151" spans="26:33">
+    <row r="151" spans="26:33" x14ac:dyDescent="0.15">
       <c r="Z151" s="15">
         <f t="shared" si="8"/>
         <v>140492</v>
@@ -15176,7 +15401,7 @@
         <v>pack,310</v>
       </c>
     </row>
-    <row r="152" spans="26:33">
+    <row r="152" spans="26:33" x14ac:dyDescent="0.15">
       <c r="Z152" s="15">
         <f t="shared" si="8"/>
         <v>140502</v>
@@ -15203,7 +15428,7 @@
         <v>pack,310</v>
       </c>
     </row>
-    <row r="153" spans="26:33">
+    <row r="153" spans="26:33" x14ac:dyDescent="0.15">
       <c r="Z153" s="15">
         <f t="shared" si="8"/>
         <v>140512</v>
@@ -15230,7 +15455,7 @@
         <v>pack,310</v>
       </c>
     </row>
-    <row r="154" spans="26:33">
+    <row r="154" spans="26:33" x14ac:dyDescent="0.15">
       <c r="Z154" s="15">
         <f t="shared" si="8"/>
         <v>140522</v>
@@ -15257,7 +15482,7 @@
         <v>pack,310</v>
       </c>
     </row>
-    <row r="155" spans="26:33">
+    <row r="155" spans="26:33" x14ac:dyDescent="0.15">
       <c r="Z155" s="15">
         <f t="shared" si="8"/>
         <v>140532</v>
@@ -15284,7 +15509,7 @@
         <v>pack,310</v>
       </c>
     </row>
-    <row r="156" spans="26:33">
+    <row r="156" spans="26:33" x14ac:dyDescent="0.15">
       <c r="Z156" s="15">
         <f t="shared" si="8"/>
         <v>140542</v>
@@ -15311,7 +15536,7 @@
         <v>pack,310</v>
       </c>
     </row>
-    <row r="157" spans="26:33">
+    <row r="157" spans="26:33" x14ac:dyDescent="0.15">
       <c r="Z157" s="15">
         <f t="shared" si="8"/>
         <v>140552</v>
@@ -15338,7 +15563,7 @@
         <v>pack,310</v>
       </c>
     </row>
-    <row r="158" spans="26:33">
+    <row r="158" spans="26:33" x14ac:dyDescent="0.15">
       <c r="Z158" s="15">
         <f t="shared" si="8"/>
         <v>140562</v>
@@ -15365,7 +15590,7 @@
         <v>pack,310</v>
       </c>
     </row>
-    <row r="159" spans="26:33">
+    <row r="159" spans="26:33" x14ac:dyDescent="0.15">
       <c r="Z159" s="15">
         <f t="shared" si="8"/>
         <v>140572</v>
@@ -15392,7 +15617,7 @@
         <v>pack,310</v>
       </c>
     </row>
-    <row r="160" spans="26:33">
+    <row r="160" spans="26:33" x14ac:dyDescent="0.15">
       <c r="Z160" s="15">
         <f t="shared" si="8"/>
         <v>140582</v>
@@ -15419,7 +15644,7 @@
         <v>pack,310</v>
       </c>
     </row>
-    <row r="161" spans="26:33">
+    <row r="161" spans="26:33" x14ac:dyDescent="0.15">
       <c r="Z161" s="15">
         <f t="shared" si="8"/>
         <v>140592</v>
@@ -15446,7 +15671,7 @@
         <v>pack,311</v>
       </c>
     </row>
-    <row r="162" spans="26:33">
+    <row r="162" spans="26:33" x14ac:dyDescent="0.15">
       <c r="Z162" s="15">
         <f t="shared" si="8"/>
         <v>140602</v>
@@ -15473,7 +15698,7 @@
         <v>pack,311</v>
       </c>
     </row>
-    <row r="163" spans="26:33">
+    <row r="163" spans="26:33" x14ac:dyDescent="0.15">
       <c r="Z163" s="15">
         <f t="shared" si="8"/>
         <v>140612</v>
@@ -15500,7 +15725,7 @@
         <v>pack,311</v>
       </c>
     </row>
-    <row r="164" spans="26:33">
+    <row r="164" spans="26:33" x14ac:dyDescent="0.15">
       <c r="Z164" s="15">
         <f t="shared" si="8"/>
         <v>140622</v>
@@ -15527,7 +15752,7 @@
         <v>pack,311</v>
       </c>
     </row>
-    <row r="165" spans="26:33">
+    <row r="165" spans="26:33" x14ac:dyDescent="0.15">
       <c r="Z165" s="15">
         <f t="shared" si="8"/>
         <v>140632</v>
@@ -15554,7 +15779,7 @@
         <v>pack,311</v>
       </c>
     </row>
-    <row r="166" spans="26:33">
+    <row r="166" spans="26:33" x14ac:dyDescent="0.15">
       <c r="Z166" s="15">
         <f t="shared" si="8"/>
         <v>140642</v>
@@ -15581,7 +15806,7 @@
         <v>pack,311</v>
       </c>
     </row>
-    <row r="167" spans="26:33">
+    <row r="167" spans="26:33" x14ac:dyDescent="0.15">
       <c r="Z167" s="15">
         <f t="shared" si="8"/>
         <v>140652</v>
@@ -15608,7 +15833,7 @@
         <v>pack,311</v>
       </c>
     </row>
-    <row r="168" spans="26:33">
+    <row r="168" spans="26:33" x14ac:dyDescent="0.15">
       <c r="Z168" s="15">
         <f t="shared" si="8"/>
         <v>140662</v>
@@ -15635,7 +15860,7 @@
         <v>pack,311</v>
       </c>
     </row>
-    <row r="169" spans="26:33">
+    <row r="169" spans="26:33" x14ac:dyDescent="0.15">
       <c r="Z169" s="15">
         <f t="shared" si="8"/>
         <v>140672</v>
@@ -15662,7 +15887,7 @@
         <v>pack,311</v>
       </c>
     </row>
-    <row r="170" spans="26:33">
+    <row r="170" spans="26:33" x14ac:dyDescent="0.15">
       <c r="Z170" s="15">
         <f t="shared" si="8"/>
         <v>140682</v>
@@ -15689,7 +15914,7 @@
         <v>pack,311</v>
       </c>
     </row>
-    <row r="171" spans="26:33">
+    <row r="171" spans="26:33" x14ac:dyDescent="0.15">
       <c r="Z171" s="15">
         <f t="shared" si="8"/>
         <v>140692</v>
@@ -15716,7 +15941,7 @@
         <v>pack,311</v>
       </c>
     </row>
-    <row r="172" spans="26:33">
+    <row r="172" spans="26:33" x14ac:dyDescent="0.15">
       <c r="Z172" s="15">
         <f t="shared" si="8"/>
         <v>140702</v>
@@ -15743,7 +15968,7 @@
         <v>pack,311</v>
       </c>
     </row>
-    <row r="173" spans="26:33">
+    <row r="173" spans="26:33" x14ac:dyDescent="0.15">
       <c r="Z173" s="15">
         <f t="shared" si="8"/>
         <v>140712</v>
@@ -15770,7 +15995,7 @@
         <v>pack,311</v>
       </c>
     </row>
-    <row r="174" spans="26:33">
+    <row r="174" spans="26:33" x14ac:dyDescent="0.15">
       <c r="Z174" s="15">
         <f t="shared" si="8"/>
         <v>140722</v>
@@ -15797,7 +16022,7 @@
         <v>pack,311</v>
       </c>
     </row>
-    <row r="175" spans="26:33">
+    <row r="175" spans="26:33" x14ac:dyDescent="0.15">
       <c r="Z175" s="15">
         <f t="shared" si="8"/>
         <v>140732</v>
@@ -15824,7 +16049,7 @@
         <v>pack,311</v>
       </c>
     </row>
-    <row r="176" spans="26:33">
+    <row r="176" spans="26:33" x14ac:dyDescent="0.15">
       <c r="Z176" s="15">
         <f t="shared" si="8"/>
         <v>140742</v>
@@ -15851,7 +16076,7 @@
         <v>pack,311</v>
       </c>
     </row>
-    <row r="177" spans="26:33">
+    <row r="177" spans="26:33" x14ac:dyDescent="0.15">
       <c r="Z177" s="15">
         <f t="shared" si="8"/>
         <v>140752</v>
@@ -15878,7 +16103,7 @@
         <v>pack,311</v>
       </c>
     </row>
-    <row r="178" spans="26:33">
+    <row r="178" spans="26:33" x14ac:dyDescent="0.15">
       <c r="Z178" s="15">
         <f t="shared" si="8"/>
         <v>140762</v>
@@ -15905,7 +16130,7 @@
         <v>pack,311</v>
       </c>
     </row>
-    <row r="179" spans="26:33">
+    <row r="179" spans="26:33" x14ac:dyDescent="0.15">
       <c r="Z179" s="15">
         <f t="shared" si="8"/>
         <v>140772</v>
@@ -15932,7 +16157,7 @@
         <v>pack,311</v>
       </c>
     </row>
-    <row r="180" spans="26:33">
+    <row r="180" spans="26:33" x14ac:dyDescent="0.15">
       <c r="Z180" s="15">
         <f t="shared" si="8"/>
         <v>140782</v>
@@ -15959,7 +16184,7 @@
         <v>pack,311</v>
       </c>
     </row>
-    <row r="181" spans="26:33">
+    <row r="181" spans="26:33" x14ac:dyDescent="0.15">
       <c r="Z181" s="15">
         <f t="shared" si="8"/>
         <v>140792</v>
@@ -15986,7 +16211,7 @@
         <v>pack,311</v>
       </c>
     </row>
-    <row r="182" spans="26:33">
+    <row r="182" spans="26:33" x14ac:dyDescent="0.15">
       <c r="Z182" s="15">
         <f t="shared" si="8"/>
         <v>140802</v>
@@ -16013,7 +16238,7 @@
         <v>pack,311</v>
       </c>
     </row>
-    <row r="183" spans="26:33">
+    <row r="183" spans="26:33" x14ac:dyDescent="0.15">
       <c r="Z183" s="15">
         <f t="shared" si="8"/>
         <v>140812</v>
@@ -16040,7 +16265,7 @@
         <v>pack,311</v>
       </c>
     </row>
-    <row r="184" spans="26:33">
+    <row r="184" spans="26:33" x14ac:dyDescent="0.15">
       <c r="Z184" s="15">
         <f t="shared" si="8"/>
         <v>140822</v>
@@ -16067,7 +16292,7 @@
         <v>pack,311</v>
       </c>
     </row>
-    <row r="185" spans="26:33">
+    <row r="185" spans="26:33" x14ac:dyDescent="0.15">
       <c r="Z185" s="15">
         <f t="shared" si="8"/>
         <v>140832</v>
@@ -16094,7 +16319,7 @@
         <v>pack,311</v>
       </c>
     </row>
-    <row r="186" spans="26:33">
+    <row r="186" spans="26:33" x14ac:dyDescent="0.15">
       <c r="Z186" s="15">
         <f t="shared" si="8"/>
         <v>140842</v>
@@ -16121,7 +16346,7 @@
         <v>pack,311</v>
       </c>
     </row>
-    <row r="187" spans="26:33">
+    <row r="187" spans="26:33" x14ac:dyDescent="0.15">
       <c r="Z187" s="15">
         <f t="shared" si="8"/>
         <v>140852</v>
@@ -16148,7 +16373,7 @@
         <v>pack,311</v>
       </c>
     </row>
-    <row r="188" spans="26:33">
+    <row r="188" spans="26:33" x14ac:dyDescent="0.15">
       <c r="Z188" s="15">
         <f t="shared" si="8"/>
         <v>140862</v>
@@ -16175,7 +16400,7 @@
         <v>pack,311</v>
       </c>
     </row>
-    <row r="189" spans="26:33">
+    <row r="189" spans="26:33" x14ac:dyDescent="0.15">
       <c r="Z189" s="15">
         <f t="shared" si="8"/>
         <v>140872</v>
@@ -16202,7 +16427,7 @@
         <v>pack,311</v>
       </c>
     </row>
-    <row r="190" spans="26:33">
+    <row r="190" spans="26:33" x14ac:dyDescent="0.15">
       <c r="Z190" s="15">
         <f t="shared" si="8"/>
         <v>140882</v>
@@ -16229,7 +16454,7 @@
         <v>pack,311</v>
       </c>
     </row>
-    <row r="191" spans="26:33">
+    <row r="191" spans="26:33" x14ac:dyDescent="0.15">
       <c r="Z191" s="15">
         <f t="shared" si="8"/>
         <v>140892</v>
@@ -16256,7 +16481,7 @@
         <v>pack,311</v>
       </c>
     </row>
-    <row r="192" spans="26:33">
+    <row r="192" spans="26:33" x14ac:dyDescent="0.15">
       <c r="Z192" s="15">
         <f t="shared" si="8"/>
         <v>140902</v>
@@ -16283,7 +16508,7 @@
         <v>pack,311</v>
       </c>
     </row>
-    <row r="193" spans="26:33">
+    <row r="193" spans="26:33" x14ac:dyDescent="0.15">
       <c r="Z193" s="15">
         <f t="shared" si="8"/>
         <v>140912</v>
@@ -16310,7 +16535,7 @@
         <v>pack,311</v>
       </c>
     </row>
-    <row r="194" spans="26:33">
+    <row r="194" spans="26:33" x14ac:dyDescent="0.15">
       <c r="Z194" s="15">
         <f t="shared" si="8"/>
         <v>140922</v>
@@ -16337,7 +16562,7 @@
         <v>pack,311</v>
       </c>
     </row>
-    <row r="195" spans="26:33">
+    <row r="195" spans="26:33" x14ac:dyDescent="0.15">
       <c r="Z195" s="15">
         <f t="shared" si="8"/>
         <v>140932</v>
@@ -16364,7 +16589,7 @@
         <v>pack,311</v>
       </c>
     </row>
-    <row r="196" spans="26:33">
+    <row r="196" spans="26:33" x14ac:dyDescent="0.15">
       <c r="Z196" s="15">
         <f t="shared" ref="Z196:Z259" si="12">100000+AA196*10+AB196</f>
         <v>140942</v>
@@ -16391,7 +16616,7 @@
         <v>pack,311</v>
       </c>
     </row>
-    <row r="197" spans="26:33">
+    <row r="197" spans="26:33" x14ac:dyDescent="0.15">
       <c r="Z197" s="15">
         <f t="shared" si="12"/>
         <v>140952</v>
@@ -16418,7 +16643,7 @@
         <v>pack,311</v>
       </c>
     </row>
-    <row r="198" spans="26:33">
+    <row r="198" spans="26:33" x14ac:dyDescent="0.15">
       <c r="Z198" s="15">
         <f t="shared" si="12"/>
         <v>140962</v>
@@ -16445,7 +16670,7 @@
         <v>pack,311</v>
       </c>
     </row>
-    <row r="199" spans="26:33">
+    <row r="199" spans="26:33" x14ac:dyDescent="0.15">
       <c r="Z199" s="15">
         <f t="shared" si="12"/>
         <v>140972</v>
@@ -16472,7 +16697,7 @@
         <v>pack,311</v>
       </c>
     </row>
-    <row r="200" spans="26:33">
+    <row r="200" spans="26:33" x14ac:dyDescent="0.15">
       <c r="Z200" s="15">
         <f t="shared" si="12"/>
         <v>140982</v>
@@ -16499,7 +16724,7 @@
         <v>pack,311</v>
       </c>
     </row>
-    <row r="201" spans="26:33">
+    <row r="201" spans="26:33" x14ac:dyDescent="0.15">
       <c r="Z201" s="15">
         <f t="shared" si="12"/>
         <v>140992</v>
@@ -16526,7 +16751,7 @@
         <v>pack,311</v>
       </c>
     </row>
-    <row r="202" spans="26:33">
+    <row r="202" spans="26:33" x14ac:dyDescent="0.15">
       <c r="Z202" s="15">
         <f t="shared" si="12"/>
         <v>141002</v>
@@ -16553,7 +16778,7 @@
         <v>pack,311</v>
       </c>
     </row>
-    <row r="203" spans="26:33">
+    <row r="203" spans="26:33" x14ac:dyDescent="0.15">
       <c r="Z203" s="15">
         <f t="shared" si="12"/>
         <v>140013</v>
@@ -16580,7 +16805,7 @@
         <v>pack,312</v>
       </c>
     </row>
-    <row r="204" spans="26:33">
+    <row r="204" spans="26:33" x14ac:dyDescent="0.15">
       <c r="Z204" s="15">
         <f t="shared" si="12"/>
         <v>140023</v>
@@ -16607,7 +16832,7 @@
         <v>pack,312</v>
       </c>
     </row>
-    <row r="205" spans="26:33">
+    <row r="205" spans="26:33" x14ac:dyDescent="0.15">
       <c r="Z205" s="15">
         <f t="shared" si="12"/>
         <v>140033</v>
@@ -16634,7 +16859,7 @@
         <v>pack,312</v>
       </c>
     </row>
-    <row r="206" spans="26:33">
+    <row r="206" spans="26:33" x14ac:dyDescent="0.15">
       <c r="Z206" s="15">
         <f t="shared" si="12"/>
         <v>140043</v>
@@ -16661,7 +16886,7 @@
         <v>pack,312</v>
       </c>
     </row>
-    <row r="207" spans="26:33">
+    <row r="207" spans="26:33" x14ac:dyDescent="0.15">
       <c r="Z207" s="15">
         <f t="shared" si="12"/>
         <v>140053</v>
@@ -16688,7 +16913,7 @@
         <v>pack,312</v>
       </c>
     </row>
-    <row r="208" spans="26:33">
+    <row r="208" spans="26:33" x14ac:dyDescent="0.15">
       <c r="Z208" s="15">
         <f t="shared" si="12"/>
         <v>140063</v>
@@ -16715,7 +16940,7 @@
         <v>pack,312</v>
       </c>
     </row>
-    <row r="209" spans="26:33">
+    <row r="209" spans="26:33" x14ac:dyDescent="0.15">
       <c r="Z209" s="15">
         <f t="shared" si="12"/>
         <v>140073</v>
@@ -16742,7 +16967,7 @@
         <v>pack,312</v>
       </c>
     </row>
-    <row r="210" spans="26:33">
+    <row r="210" spans="26:33" x14ac:dyDescent="0.15">
       <c r="Z210" s="15">
         <f t="shared" si="12"/>
         <v>140083</v>
@@ -16769,7 +16994,7 @@
         <v>pack,312</v>
       </c>
     </row>
-    <row r="211" spans="26:33">
+    <row r="211" spans="26:33" x14ac:dyDescent="0.15">
       <c r="Z211" s="15">
         <f t="shared" si="12"/>
         <v>140093</v>
@@ -16796,7 +17021,7 @@
         <v>pack,312</v>
       </c>
     </row>
-    <row r="212" spans="26:33">
+    <row r="212" spans="26:33" x14ac:dyDescent="0.15">
       <c r="Z212" s="15">
         <f t="shared" si="12"/>
         <v>140103</v>
@@ -16823,7 +17048,7 @@
         <v>pack,312</v>
       </c>
     </row>
-    <row r="213" spans="26:33">
+    <row r="213" spans="26:33" x14ac:dyDescent="0.15">
       <c r="Z213" s="15">
         <f t="shared" si="12"/>
         <v>140113</v>
@@ -16850,7 +17075,7 @@
         <v>pack,312</v>
       </c>
     </row>
-    <row r="214" spans="26:33">
+    <row r="214" spans="26:33" x14ac:dyDescent="0.15">
       <c r="Z214" s="15">
         <f t="shared" si="12"/>
         <v>140123</v>
@@ -16877,7 +17102,7 @@
         <v>pack,312</v>
       </c>
     </row>
-    <row r="215" spans="26:33">
+    <row r="215" spans="26:33" x14ac:dyDescent="0.15">
       <c r="Z215" s="15">
         <f t="shared" si="12"/>
         <v>140133</v>
@@ -16904,7 +17129,7 @@
         <v>pack,312</v>
       </c>
     </row>
-    <row r="216" spans="26:33">
+    <row r="216" spans="26:33" x14ac:dyDescent="0.15">
       <c r="Z216" s="15">
         <f t="shared" si="12"/>
         <v>140143</v>
@@ -16931,7 +17156,7 @@
         <v>pack,312</v>
       </c>
     </row>
-    <row r="217" spans="26:33">
+    <row r="217" spans="26:33" x14ac:dyDescent="0.15">
       <c r="Z217" s="15">
         <f t="shared" si="12"/>
         <v>140153</v>
@@ -16958,7 +17183,7 @@
         <v>pack,312</v>
       </c>
     </row>
-    <row r="218" spans="26:33">
+    <row r="218" spans="26:33" x14ac:dyDescent="0.15">
       <c r="Z218" s="15">
         <f t="shared" si="12"/>
         <v>140163</v>
@@ -16985,7 +17210,7 @@
         <v>pack,312</v>
       </c>
     </row>
-    <row r="219" spans="26:33">
+    <row r="219" spans="26:33" x14ac:dyDescent="0.15">
       <c r="Z219" s="15">
         <f t="shared" si="12"/>
         <v>140173</v>
@@ -17012,7 +17237,7 @@
         <v>pack,312</v>
       </c>
     </row>
-    <row r="220" spans="26:33">
+    <row r="220" spans="26:33" x14ac:dyDescent="0.15">
       <c r="Z220" s="15">
         <f t="shared" si="12"/>
         <v>140183</v>
@@ -17039,7 +17264,7 @@
         <v>pack,312</v>
       </c>
     </row>
-    <row r="221" spans="26:33">
+    <row r="221" spans="26:33" x14ac:dyDescent="0.15">
       <c r="Z221" s="15">
         <f t="shared" si="12"/>
         <v>140193</v>
@@ -17066,7 +17291,7 @@
         <v>pack,312</v>
       </c>
     </row>
-    <row r="222" spans="26:33">
+    <row r="222" spans="26:33" x14ac:dyDescent="0.15">
       <c r="Z222" s="15">
         <f t="shared" si="12"/>
         <v>140203</v>
@@ -17093,7 +17318,7 @@
         <v>pack,312</v>
       </c>
     </row>
-    <row r="223" spans="26:33">
+    <row r="223" spans="26:33" x14ac:dyDescent="0.15">
       <c r="Z223" s="15">
         <f t="shared" si="12"/>
         <v>140213</v>
@@ -17120,7 +17345,7 @@
         <v>pack,312</v>
       </c>
     </row>
-    <row r="224" spans="26:33">
+    <row r="224" spans="26:33" x14ac:dyDescent="0.15">
       <c r="Z224" s="15">
         <f t="shared" si="12"/>
         <v>140223</v>
@@ -17147,7 +17372,7 @@
         <v>pack,312</v>
       </c>
     </row>
-    <row r="225" spans="26:33">
+    <row r="225" spans="26:33" x14ac:dyDescent="0.15">
       <c r="Z225" s="15">
         <f t="shared" si="12"/>
         <v>140233</v>
@@ -17174,7 +17399,7 @@
         <v>pack,312</v>
       </c>
     </row>
-    <row r="226" spans="26:33">
+    <row r="226" spans="26:33" x14ac:dyDescent="0.15">
       <c r="Z226" s="15">
         <f t="shared" si="12"/>
         <v>140243</v>
@@ -17201,7 +17426,7 @@
         <v>pack,312</v>
       </c>
     </row>
-    <row r="227" spans="26:33">
+    <row r="227" spans="26:33" x14ac:dyDescent="0.15">
       <c r="Z227" s="15">
         <f t="shared" si="12"/>
         <v>140253</v>
@@ -17228,7 +17453,7 @@
         <v>pack,312</v>
       </c>
     </row>
-    <row r="228" spans="26:33">
+    <row r="228" spans="26:33" x14ac:dyDescent="0.15">
       <c r="Z228" s="15">
         <f t="shared" si="12"/>
         <v>140263</v>
@@ -17255,7 +17480,7 @@
         <v>pack,312</v>
       </c>
     </row>
-    <row r="229" spans="26:33">
+    <row r="229" spans="26:33" x14ac:dyDescent="0.15">
       <c r="Z229" s="15">
         <f t="shared" si="12"/>
         <v>140273</v>
@@ -17282,7 +17507,7 @@
         <v>pack,312</v>
       </c>
     </row>
-    <row r="230" spans="26:33">
+    <row r="230" spans="26:33" x14ac:dyDescent="0.15">
       <c r="Z230" s="15">
         <f t="shared" si="12"/>
         <v>140283</v>
@@ -17309,7 +17534,7 @@
         <v>pack,312</v>
       </c>
     </row>
-    <row r="231" spans="26:33">
+    <row r="231" spans="26:33" x14ac:dyDescent="0.15">
       <c r="Z231" s="15">
         <f t="shared" si="12"/>
         <v>140293</v>
@@ -17336,7 +17561,7 @@
         <v>pack,312</v>
       </c>
     </row>
-    <row r="232" spans="26:33">
+    <row r="232" spans="26:33" x14ac:dyDescent="0.15">
       <c r="Z232" s="15">
         <f t="shared" si="12"/>
         <v>140303</v>
@@ -17363,7 +17588,7 @@
         <v>pack,312</v>
       </c>
     </row>
-    <row r="233" spans="26:33">
+    <row r="233" spans="26:33" x14ac:dyDescent="0.15">
       <c r="Z233" s="15">
         <f t="shared" si="12"/>
         <v>140313</v>
@@ -17390,7 +17615,7 @@
         <v>pack,312</v>
       </c>
     </row>
-    <row r="234" spans="26:33">
+    <row r="234" spans="26:33" x14ac:dyDescent="0.15">
       <c r="Z234" s="15">
         <f t="shared" si="12"/>
         <v>140323</v>
@@ -17417,7 +17642,7 @@
         <v>pack,312</v>
       </c>
     </row>
-    <row r="235" spans="26:33">
+    <row r="235" spans="26:33" x14ac:dyDescent="0.15">
       <c r="Z235" s="15">
         <f t="shared" si="12"/>
         <v>140333</v>
@@ -17444,7 +17669,7 @@
         <v>pack,312</v>
       </c>
     </row>
-    <row r="236" spans="26:33">
+    <row r="236" spans="26:33" x14ac:dyDescent="0.15">
       <c r="Z236" s="15">
         <f t="shared" si="12"/>
         <v>140343</v>
@@ -17471,7 +17696,7 @@
         <v>pack,312</v>
       </c>
     </row>
-    <row r="237" spans="26:33">
+    <row r="237" spans="26:33" x14ac:dyDescent="0.15">
       <c r="Z237" s="15">
         <f t="shared" si="12"/>
         <v>140353</v>
@@ -17498,7 +17723,7 @@
         <v>pack,312</v>
       </c>
     </row>
-    <row r="238" spans="26:33">
+    <row r="238" spans="26:33" x14ac:dyDescent="0.15">
       <c r="Z238" s="15">
         <f t="shared" si="12"/>
         <v>140363</v>
@@ -17525,7 +17750,7 @@
         <v>pack,312</v>
       </c>
     </row>
-    <row r="239" spans="26:33">
+    <row r="239" spans="26:33" x14ac:dyDescent="0.15">
       <c r="Z239" s="15">
         <f t="shared" si="12"/>
         <v>140373</v>
@@ -17552,7 +17777,7 @@
         <v>pack,312</v>
       </c>
     </row>
-    <row r="240" spans="26:33">
+    <row r="240" spans="26:33" x14ac:dyDescent="0.15">
       <c r="Z240" s="15">
         <f t="shared" si="12"/>
         <v>140383</v>
@@ -17579,7 +17804,7 @@
         <v>pack,312</v>
       </c>
     </row>
-    <row r="241" spans="26:33">
+    <row r="241" spans="26:33" x14ac:dyDescent="0.15">
       <c r="Z241" s="15">
         <f t="shared" si="12"/>
         <v>140393</v>
@@ -17606,7 +17831,7 @@
         <v>pack,313</v>
       </c>
     </row>
-    <row r="242" spans="26:33">
+    <row r="242" spans="26:33" x14ac:dyDescent="0.15">
       <c r="Z242" s="15">
         <f t="shared" si="12"/>
         <v>140403</v>
@@ -17633,7 +17858,7 @@
         <v>pack,313</v>
       </c>
     </row>
-    <row r="243" spans="26:33">
+    <row r="243" spans="26:33" x14ac:dyDescent="0.15">
       <c r="Z243" s="15">
         <f t="shared" si="12"/>
         <v>140413</v>
@@ -17660,7 +17885,7 @@
         <v>pack,313</v>
       </c>
     </row>
-    <row r="244" spans="26:33">
+    <row r="244" spans="26:33" x14ac:dyDescent="0.15">
       <c r="Z244" s="15">
         <f t="shared" si="12"/>
         <v>140423</v>
@@ -17687,7 +17912,7 @@
         <v>pack,313</v>
       </c>
     </row>
-    <row r="245" spans="26:33">
+    <row r="245" spans="26:33" x14ac:dyDescent="0.15">
       <c r="Z245" s="15">
         <f t="shared" si="12"/>
         <v>140433</v>
@@ -17714,7 +17939,7 @@
         <v>pack,313</v>
       </c>
     </row>
-    <row r="246" spans="26:33">
+    <row r="246" spans="26:33" x14ac:dyDescent="0.15">
       <c r="Z246" s="15">
         <f t="shared" si="12"/>
         <v>140443</v>
@@ -17741,7 +17966,7 @@
         <v>pack,313</v>
       </c>
     </row>
-    <row r="247" spans="26:33">
+    <row r="247" spans="26:33" x14ac:dyDescent="0.15">
       <c r="Z247" s="15">
         <f t="shared" si="12"/>
         <v>140453</v>
@@ -17768,7 +17993,7 @@
         <v>pack,313</v>
       </c>
     </row>
-    <row r="248" spans="26:33">
+    <row r="248" spans="26:33" x14ac:dyDescent="0.15">
       <c r="Z248" s="15">
         <f t="shared" si="12"/>
         <v>140463</v>
@@ -17795,7 +18020,7 @@
         <v>pack,313</v>
       </c>
     </row>
-    <row r="249" spans="26:33">
+    <row r="249" spans="26:33" x14ac:dyDescent="0.15">
       <c r="Z249" s="15">
         <f t="shared" si="12"/>
         <v>140473</v>
@@ -17822,7 +18047,7 @@
         <v>pack,313</v>
       </c>
     </row>
-    <row r="250" spans="26:33">
+    <row r="250" spans="26:33" x14ac:dyDescent="0.15">
       <c r="Z250" s="15">
         <f t="shared" si="12"/>
         <v>140483</v>
@@ -17849,7 +18074,7 @@
         <v>pack,313</v>
       </c>
     </row>
-    <row r="251" spans="26:33">
+    <row r="251" spans="26:33" x14ac:dyDescent="0.15">
       <c r="Z251" s="15">
         <f t="shared" si="12"/>
         <v>140493</v>
@@ -17876,7 +18101,7 @@
         <v>pack,313</v>
       </c>
     </row>
-    <row r="252" spans="26:33">
+    <row r="252" spans="26:33" x14ac:dyDescent="0.15">
       <c r="Z252" s="15">
         <f t="shared" si="12"/>
         <v>140503</v>
@@ -17903,7 +18128,7 @@
         <v>pack,313</v>
       </c>
     </row>
-    <row r="253" spans="26:33">
+    <row r="253" spans="26:33" x14ac:dyDescent="0.15">
       <c r="Z253" s="15">
         <f t="shared" si="12"/>
         <v>140513</v>
@@ -17930,7 +18155,7 @@
         <v>pack,313</v>
       </c>
     </row>
-    <row r="254" spans="26:33">
+    <row r="254" spans="26:33" x14ac:dyDescent="0.15">
       <c r="Z254" s="15">
         <f t="shared" si="12"/>
         <v>140523</v>
@@ -17957,7 +18182,7 @@
         <v>pack,313</v>
       </c>
     </row>
-    <row r="255" spans="26:33">
+    <row r="255" spans="26:33" x14ac:dyDescent="0.15">
       <c r="Z255" s="15">
         <f t="shared" si="12"/>
         <v>140533</v>
@@ -17984,7 +18209,7 @@
         <v>pack,313</v>
       </c>
     </row>
-    <row r="256" spans="26:33">
+    <row r="256" spans="26:33" x14ac:dyDescent="0.15">
       <c r="Z256" s="15">
         <f t="shared" si="12"/>
         <v>140543</v>
@@ -18011,7 +18236,7 @@
         <v>pack,313</v>
       </c>
     </row>
-    <row r="257" spans="26:33">
+    <row r="257" spans="26:33" x14ac:dyDescent="0.15">
       <c r="Z257" s="15">
         <f t="shared" si="12"/>
         <v>140553</v>
@@ -18038,7 +18263,7 @@
         <v>pack,313</v>
       </c>
     </row>
-    <row r="258" spans="26:33">
+    <row r="258" spans="26:33" x14ac:dyDescent="0.15">
       <c r="Z258" s="15">
         <f t="shared" si="12"/>
         <v>140563</v>
@@ -18065,7 +18290,7 @@
         <v>pack,313</v>
       </c>
     </row>
-    <row r="259" spans="26:33">
+    <row r="259" spans="26:33" x14ac:dyDescent="0.15">
       <c r="Z259" s="15">
         <f t="shared" si="12"/>
         <v>140573</v>
@@ -18092,7 +18317,7 @@
         <v>pack,313</v>
       </c>
     </row>
-    <row r="260" spans="26:33">
+    <row r="260" spans="26:33" x14ac:dyDescent="0.15">
       <c r="Z260" s="15">
         <f t="shared" ref="Z260:Z323" si="16">100000+AA260*10+AB260</f>
         <v>140583</v>
@@ -18119,7 +18344,7 @@
         <v>pack,313</v>
       </c>
     </row>
-    <row r="261" spans="26:33">
+    <row r="261" spans="26:33" x14ac:dyDescent="0.15">
       <c r="Z261" s="15">
         <f t="shared" si="16"/>
         <v>140593</v>
@@ -18146,7 +18371,7 @@
         <v>pack,314</v>
       </c>
     </row>
-    <row r="262" spans="26:33">
+    <row r="262" spans="26:33" x14ac:dyDescent="0.15">
       <c r="Z262" s="15">
         <f t="shared" si="16"/>
         <v>140603</v>
@@ -18173,7 +18398,7 @@
         <v>pack,314</v>
       </c>
     </row>
-    <row r="263" spans="26:33">
+    <row r="263" spans="26:33" x14ac:dyDescent="0.15">
       <c r="Z263" s="15">
         <f t="shared" si="16"/>
         <v>140613</v>
@@ -18200,7 +18425,7 @@
         <v>pack,314</v>
       </c>
     </row>
-    <row r="264" spans="26:33">
+    <row r="264" spans="26:33" x14ac:dyDescent="0.15">
       <c r="Z264" s="15">
         <f t="shared" si="16"/>
         <v>140623</v>
@@ -18227,7 +18452,7 @@
         <v>pack,314</v>
       </c>
     </row>
-    <row r="265" spans="26:33">
+    <row r="265" spans="26:33" x14ac:dyDescent="0.15">
       <c r="Z265" s="15">
         <f t="shared" si="16"/>
         <v>140633</v>
@@ -18254,7 +18479,7 @@
         <v>pack,314</v>
       </c>
     </row>
-    <row r="266" spans="26:33">
+    <row r="266" spans="26:33" x14ac:dyDescent="0.15">
       <c r="Z266" s="15">
         <f t="shared" si="16"/>
         <v>140643</v>
@@ -18281,7 +18506,7 @@
         <v>pack,314</v>
       </c>
     </row>
-    <row r="267" spans="26:33">
+    <row r="267" spans="26:33" x14ac:dyDescent="0.15">
       <c r="Z267" s="15">
         <f t="shared" si="16"/>
         <v>140653</v>
@@ -18308,7 +18533,7 @@
         <v>pack,314</v>
       </c>
     </row>
-    <row r="268" spans="26:33">
+    <row r="268" spans="26:33" x14ac:dyDescent="0.15">
       <c r="Z268" s="15">
         <f t="shared" si="16"/>
         <v>140663</v>
@@ -18335,7 +18560,7 @@
         <v>pack,314</v>
       </c>
     </row>
-    <row r="269" spans="26:33">
+    <row r="269" spans="26:33" x14ac:dyDescent="0.15">
       <c r="Z269" s="15">
         <f t="shared" si="16"/>
         <v>140673</v>
@@ -18362,7 +18587,7 @@
         <v>pack,314</v>
       </c>
     </row>
-    <row r="270" spans="26:33">
+    <row r="270" spans="26:33" x14ac:dyDescent="0.15">
       <c r="Z270" s="15">
         <f t="shared" si="16"/>
         <v>140683</v>
@@ -18389,7 +18614,7 @@
         <v>pack,314</v>
       </c>
     </row>
-    <row r="271" spans="26:33">
+    <row r="271" spans="26:33" x14ac:dyDescent="0.15">
       <c r="Z271" s="15">
         <f t="shared" si="16"/>
         <v>140693</v>
@@ -18416,7 +18641,7 @@
         <v>pack,314</v>
       </c>
     </row>
-    <row r="272" spans="26:33">
+    <row r="272" spans="26:33" x14ac:dyDescent="0.15">
       <c r="Z272" s="15">
         <f t="shared" si="16"/>
         <v>140703</v>
@@ -18443,7 +18668,7 @@
         <v>pack,314</v>
       </c>
     </row>
-    <row r="273" spans="26:33">
+    <row r="273" spans="26:33" x14ac:dyDescent="0.15">
       <c r="Z273" s="15">
         <f t="shared" si="16"/>
         <v>140713</v>
@@ -18470,7 +18695,7 @@
         <v>pack,314</v>
       </c>
     </row>
-    <row r="274" spans="26:33">
+    <row r="274" spans="26:33" x14ac:dyDescent="0.15">
       <c r="Z274" s="15">
         <f t="shared" si="16"/>
         <v>140723</v>
@@ -18497,7 +18722,7 @@
         <v>pack,314</v>
       </c>
     </row>
-    <row r="275" spans="26:33">
+    <row r="275" spans="26:33" x14ac:dyDescent="0.15">
       <c r="Z275" s="15">
         <f t="shared" si="16"/>
         <v>140733</v>
@@ -18524,7 +18749,7 @@
         <v>pack,314</v>
       </c>
     </row>
-    <row r="276" spans="26:33">
+    <row r="276" spans="26:33" x14ac:dyDescent="0.15">
       <c r="Z276" s="15">
         <f t="shared" si="16"/>
         <v>140743</v>
@@ -18551,7 +18776,7 @@
         <v>pack,314</v>
       </c>
     </row>
-    <row r="277" spans="26:33">
+    <row r="277" spans="26:33" x14ac:dyDescent="0.15">
       <c r="Z277" s="15">
         <f t="shared" si="16"/>
         <v>140753</v>
@@ -18578,7 +18803,7 @@
         <v>pack,314</v>
       </c>
     </row>
-    <row r="278" spans="26:33">
+    <row r="278" spans="26:33" x14ac:dyDescent="0.15">
       <c r="Z278" s="15">
         <f t="shared" si="16"/>
         <v>140763</v>
@@ -18605,7 +18830,7 @@
         <v>pack,314</v>
       </c>
     </row>
-    <row r="279" spans="26:33">
+    <row r="279" spans="26:33" x14ac:dyDescent="0.15">
       <c r="Z279" s="15">
         <f t="shared" si="16"/>
         <v>140773</v>
@@ -18632,7 +18857,7 @@
         <v>pack,314</v>
       </c>
     </row>
-    <row r="280" spans="26:33">
+    <row r="280" spans="26:33" x14ac:dyDescent="0.15">
       <c r="Z280" s="15">
         <f t="shared" si="16"/>
         <v>140783</v>
@@ -18659,7 +18884,7 @@
         <v>pack,314</v>
       </c>
     </row>
-    <row r="281" spans="26:33">
+    <row r="281" spans="26:33" x14ac:dyDescent="0.15">
       <c r="Z281" s="15">
         <f t="shared" si="16"/>
         <v>140793</v>
@@ -18686,7 +18911,7 @@
         <v>pack,314</v>
       </c>
     </row>
-    <row r="282" spans="26:33">
+    <row r="282" spans="26:33" x14ac:dyDescent="0.15">
       <c r="Z282" s="15">
         <f t="shared" si="16"/>
         <v>140803</v>
@@ -18713,7 +18938,7 @@
         <v>pack,314</v>
       </c>
     </row>
-    <row r="283" spans="26:33">
+    <row r="283" spans="26:33" x14ac:dyDescent="0.15">
       <c r="Z283" s="15">
         <f t="shared" si="16"/>
         <v>140813</v>
@@ -18740,7 +18965,7 @@
         <v>pack,314</v>
       </c>
     </row>
-    <row r="284" spans="26:33">
+    <row r="284" spans="26:33" x14ac:dyDescent="0.15">
       <c r="Z284" s="15">
         <f t="shared" si="16"/>
         <v>140823</v>
@@ -18767,7 +18992,7 @@
         <v>pack,314</v>
       </c>
     </row>
-    <row r="285" spans="26:33">
+    <row r="285" spans="26:33" x14ac:dyDescent="0.15">
       <c r="Z285" s="15">
         <f t="shared" si="16"/>
         <v>140833</v>
@@ -18794,7 +19019,7 @@
         <v>pack,314</v>
       </c>
     </row>
-    <row r="286" spans="26:33">
+    <row r="286" spans="26:33" x14ac:dyDescent="0.15">
       <c r="Z286" s="15">
         <f t="shared" si="16"/>
         <v>140843</v>
@@ -18821,7 +19046,7 @@
         <v>pack,314</v>
       </c>
     </row>
-    <row r="287" spans="26:33">
+    <row r="287" spans="26:33" x14ac:dyDescent="0.15">
       <c r="Z287" s="15">
         <f t="shared" si="16"/>
         <v>140853</v>
@@ -18848,7 +19073,7 @@
         <v>pack,314</v>
       </c>
     </row>
-    <row r="288" spans="26:33">
+    <row r="288" spans="26:33" x14ac:dyDescent="0.15">
       <c r="Z288" s="15">
         <f t="shared" si="16"/>
         <v>140863</v>
@@ -18875,7 +19100,7 @@
         <v>pack,314</v>
       </c>
     </row>
-    <row r="289" spans="26:33">
+    <row r="289" spans="26:33" x14ac:dyDescent="0.15">
       <c r="Z289" s="15">
         <f t="shared" si="16"/>
         <v>140873</v>
@@ -18902,7 +19127,7 @@
         <v>pack,314</v>
       </c>
     </row>
-    <row r="290" spans="26:33">
+    <row r="290" spans="26:33" x14ac:dyDescent="0.15">
       <c r="Z290" s="15">
         <f t="shared" si="16"/>
         <v>140883</v>
@@ -18929,7 +19154,7 @@
         <v>pack,314</v>
       </c>
     </row>
-    <row r="291" spans="26:33">
+    <row r="291" spans="26:33" x14ac:dyDescent="0.15">
       <c r="Z291" s="15">
         <f t="shared" si="16"/>
         <v>140893</v>
@@ -18956,7 +19181,7 @@
         <v>pack,314</v>
       </c>
     </row>
-    <row r="292" spans="26:33">
+    <row r="292" spans="26:33" x14ac:dyDescent="0.15">
       <c r="Z292" s="15">
         <f t="shared" si="16"/>
         <v>140903</v>
@@ -18983,7 +19208,7 @@
         <v>pack,314</v>
       </c>
     </row>
-    <row r="293" spans="26:33">
+    <row r="293" spans="26:33" x14ac:dyDescent="0.15">
       <c r="Z293" s="15">
         <f t="shared" si="16"/>
         <v>140913</v>
@@ -19010,7 +19235,7 @@
         <v>pack,314</v>
       </c>
     </row>
-    <row r="294" spans="26:33">
+    <row r="294" spans="26:33" x14ac:dyDescent="0.15">
       <c r="Z294" s="15">
         <f t="shared" si="16"/>
         <v>140923</v>
@@ -19037,7 +19262,7 @@
         <v>pack,314</v>
       </c>
     </row>
-    <row r="295" spans="26:33">
+    <row r="295" spans="26:33" x14ac:dyDescent="0.15">
       <c r="Z295" s="15">
         <f t="shared" si="16"/>
         <v>140933</v>
@@ -19064,7 +19289,7 @@
         <v>pack,314</v>
       </c>
     </row>
-    <row r="296" spans="26:33">
+    <row r="296" spans="26:33" x14ac:dyDescent="0.15">
       <c r="Z296" s="15">
         <f t="shared" si="16"/>
         <v>140943</v>
@@ -19091,7 +19316,7 @@
         <v>pack,314</v>
       </c>
     </row>
-    <row r="297" spans="26:33">
+    <row r="297" spans="26:33" x14ac:dyDescent="0.15">
       <c r="Z297" s="15">
         <f t="shared" si="16"/>
         <v>140953</v>
@@ -19118,7 +19343,7 @@
         <v>pack,314</v>
       </c>
     </row>
-    <row r="298" spans="26:33">
+    <row r="298" spans="26:33" x14ac:dyDescent="0.15">
       <c r="Z298" s="15">
         <f t="shared" si="16"/>
         <v>140963</v>
@@ -19145,7 +19370,7 @@
         <v>pack,314</v>
       </c>
     </row>
-    <row r="299" spans="26:33">
+    <row r="299" spans="26:33" x14ac:dyDescent="0.15">
       <c r="Z299" s="15">
         <f t="shared" si="16"/>
         <v>140973</v>
@@ -19172,7 +19397,7 @@
         <v>pack,314</v>
       </c>
     </row>
-    <row r="300" spans="26:33">
+    <row r="300" spans="26:33" x14ac:dyDescent="0.15">
       <c r="Z300" s="15">
         <f t="shared" si="16"/>
         <v>140983</v>
@@ -19199,7 +19424,7 @@
         <v>pack,314</v>
       </c>
     </row>
-    <row r="301" spans="26:33">
+    <row r="301" spans="26:33" x14ac:dyDescent="0.15">
       <c r="Z301" s="15">
         <f t="shared" si="16"/>
         <v>140993</v>
@@ -19226,7 +19451,7 @@
         <v>pack,314</v>
       </c>
     </row>
-    <row r="302" spans="26:33">
+    <row r="302" spans="26:33" x14ac:dyDescent="0.15">
       <c r="Z302" s="15">
         <f t="shared" si="16"/>
         <v>141003</v>
@@ -19253,7 +19478,7 @@
         <v>pack,314</v>
       </c>
     </row>
-    <row r="303" spans="26:33">
+    <row r="303" spans="26:33" x14ac:dyDescent="0.15">
       <c r="Z303" s="15">
         <f t="shared" si="16"/>
         <v>140014</v>
@@ -19280,7 +19505,7 @@
         <v>pack,315</v>
       </c>
     </row>
-    <row r="304" spans="26:33">
+    <row r="304" spans="26:33" x14ac:dyDescent="0.15">
       <c r="Z304" s="15">
         <f t="shared" si="16"/>
         <v>140024</v>
@@ -19307,7 +19532,7 @@
         <v>pack,315</v>
       </c>
     </row>
-    <row r="305" spans="26:33">
+    <row r="305" spans="26:33" x14ac:dyDescent="0.15">
       <c r="Z305" s="15">
         <f t="shared" si="16"/>
         <v>140034</v>
@@ -19334,7 +19559,7 @@
         <v>pack,315</v>
       </c>
     </row>
-    <row r="306" spans="26:33">
+    <row r="306" spans="26:33" x14ac:dyDescent="0.15">
       <c r="Z306" s="15">
         <f t="shared" si="16"/>
         <v>140044</v>
@@ -19361,7 +19586,7 @@
         <v>pack,315</v>
       </c>
     </row>
-    <row r="307" spans="26:33">
+    <row r="307" spans="26:33" x14ac:dyDescent="0.15">
       <c r="Z307" s="15">
         <f t="shared" si="16"/>
         <v>140054</v>
@@ -19388,7 +19613,7 @@
         <v>pack,315</v>
       </c>
     </row>
-    <row r="308" spans="26:33">
+    <row r="308" spans="26:33" x14ac:dyDescent="0.15">
       <c r="Z308" s="15">
         <f t="shared" si="16"/>
         <v>140064</v>
@@ -19415,7 +19640,7 @@
         <v>pack,315</v>
       </c>
     </row>
-    <row r="309" spans="26:33">
+    <row r="309" spans="26:33" x14ac:dyDescent="0.15">
       <c r="Z309" s="15">
         <f t="shared" si="16"/>
         <v>140074</v>
@@ -19442,7 +19667,7 @@
         <v>pack,315</v>
       </c>
     </row>
-    <row r="310" spans="26:33">
+    <row r="310" spans="26:33" x14ac:dyDescent="0.15">
       <c r="Z310" s="15">
         <f t="shared" si="16"/>
         <v>140084</v>
@@ -19469,7 +19694,7 @@
         <v>pack,315</v>
       </c>
     </row>
-    <row r="311" spans="26:33">
+    <row r="311" spans="26:33" x14ac:dyDescent="0.15">
       <c r="Z311" s="15">
         <f t="shared" si="16"/>
         <v>140094</v>
@@ -19496,7 +19721,7 @@
         <v>pack,315</v>
       </c>
     </row>
-    <row r="312" spans="26:33">
+    <row r="312" spans="26:33" x14ac:dyDescent="0.15">
       <c r="Z312" s="15">
         <f t="shared" si="16"/>
         <v>140104</v>
@@ -19523,7 +19748,7 @@
         <v>pack,315</v>
       </c>
     </row>
-    <row r="313" spans="26:33">
+    <row r="313" spans="26:33" x14ac:dyDescent="0.15">
       <c r="Z313" s="15">
         <f t="shared" si="16"/>
         <v>140114</v>
@@ -19550,7 +19775,7 @@
         <v>pack,315</v>
       </c>
     </row>
-    <row r="314" spans="26:33">
+    <row r="314" spans="26:33" x14ac:dyDescent="0.15">
       <c r="Z314" s="15">
         <f t="shared" si="16"/>
         <v>140124</v>
@@ -19577,7 +19802,7 @@
         <v>pack,315</v>
       </c>
     </row>
-    <row r="315" spans="26:33">
+    <row r="315" spans="26:33" x14ac:dyDescent="0.15">
       <c r="Z315" s="15">
         <f t="shared" si="16"/>
         <v>140134</v>
@@ -19604,7 +19829,7 @@
         <v>pack,315</v>
       </c>
     </row>
-    <row r="316" spans="26:33">
+    <row r="316" spans="26:33" x14ac:dyDescent="0.15">
       <c r="Z316" s="15">
         <f t="shared" si="16"/>
         <v>140144</v>
@@ -19631,7 +19856,7 @@
         <v>pack,315</v>
       </c>
     </row>
-    <row r="317" spans="26:33">
+    <row r="317" spans="26:33" x14ac:dyDescent="0.15">
       <c r="Z317" s="15">
         <f t="shared" si="16"/>
         <v>140154</v>
@@ -19658,7 +19883,7 @@
         <v>pack,315</v>
       </c>
     </row>
-    <row r="318" spans="26:33">
+    <row r="318" spans="26:33" x14ac:dyDescent="0.15">
       <c r="Z318" s="15">
         <f t="shared" si="16"/>
         <v>140164</v>
@@ -19685,7 +19910,7 @@
         <v>pack,315</v>
       </c>
     </row>
-    <row r="319" spans="26:33">
+    <row r="319" spans="26:33" x14ac:dyDescent="0.15">
       <c r="Z319" s="15">
         <f t="shared" si="16"/>
         <v>140174</v>
@@ -19712,7 +19937,7 @@
         <v>pack,315</v>
       </c>
     </row>
-    <row r="320" spans="26:33">
+    <row r="320" spans="26:33" x14ac:dyDescent="0.15">
       <c r="Z320" s="15">
         <f t="shared" si="16"/>
         <v>140184</v>
@@ -19739,7 +19964,7 @@
         <v>pack,315</v>
       </c>
     </row>
-    <row r="321" spans="26:33">
+    <row r="321" spans="26:33" x14ac:dyDescent="0.15">
       <c r="Z321" s="15">
         <f t="shared" si="16"/>
         <v>140194</v>
@@ -19766,7 +19991,7 @@
         <v>pack,315</v>
       </c>
     </row>
-    <row r="322" spans="26:33">
+    <row r="322" spans="26:33" x14ac:dyDescent="0.15">
       <c r="Z322" s="15">
         <f t="shared" si="16"/>
         <v>140204</v>
@@ -19793,7 +20018,7 @@
         <v>pack,315</v>
       </c>
     </row>
-    <row r="323" spans="26:33">
+    <row r="323" spans="26:33" x14ac:dyDescent="0.15">
       <c r="Z323" s="15">
         <f t="shared" si="16"/>
         <v>140214</v>
@@ -19820,7 +20045,7 @@
         <v>pack,315</v>
       </c>
     </row>
-    <row r="324" spans="26:33">
+    <row r="324" spans="26:33" x14ac:dyDescent="0.15">
       <c r="Z324" s="15">
         <f t="shared" ref="Z324:Z387" si="20">100000+AA324*10+AB324</f>
         <v>140224</v>
@@ -19847,7 +20072,7 @@
         <v>pack,315</v>
       </c>
     </row>
-    <row r="325" spans="26:33">
+    <row r="325" spans="26:33" x14ac:dyDescent="0.15">
       <c r="Z325" s="15">
         <f t="shared" si="20"/>
         <v>140234</v>
@@ -19874,7 +20099,7 @@
         <v>pack,315</v>
       </c>
     </row>
-    <row r="326" spans="26:33">
+    <row r="326" spans="26:33" x14ac:dyDescent="0.15">
       <c r="Z326" s="15">
         <f t="shared" si="20"/>
         <v>140244</v>
@@ -19901,7 +20126,7 @@
         <v>pack,315</v>
       </c>
     </row>
-    <row r="327" spans="26:33">
+    <row r="327" spans="26:33" x14ac:dyDescent="0.15">
       <c r="Z327" s="15">
         <f t="shared" si="20"/>
         <v>140254</v>
@@ -19928,7 +20153,7 @@
         <v>pack,315</v>
       </c>
     </row>
-    <row r="328" spans="26:33">
+    <row r="328" spans="26:33" x14ac:dyDescent="0.15">
       <c r="Z328" s="15">
         <f t="shared" si="20"/>
         <v>140264</v>
@@ -19955,7 +20180,7 @@
         <v>pack,315</v>
       </c>
     </row>
-    <row r="329" spans="26:33">
+    <row r="329" spans="26:33" x14ac:dyDescent="0.15">
       <c r="Z329" s="15">
         <f t="shared" si="20"/>
         <v>140274</v>
@@ -19982,7 +20207,7 @@
         <v>pack,315</v>
       </c>
     </row>
-    <row r="330" spans="26:33">
+    <row r="330" spans="26:33" x14ac:dyDescent="0.15">
       <c r="Z330" s="15">
         <f t="shared" si="20"/>
         <v>140284</v>
@@ -20009,7 +20234,7 @@
         <v>pack,315</v>
       </c>
     </row>
-    <row r="331" spans="26:33">
+    <row r="331" spans="26:33" x14ac:dyDescent="0.15">
       <c r="Z331" s="15">
         <f t="shared" si="20"/>
         <v>140294</v>
@@ -20036,7 +20261,7 @@
         <v>pack,315</v>
       </c>
     </row>
-    <row r="332" spans="26:33">
+    <row r="332" spans="26:33" x14ac:dyDescent="0.15">
       <c r="Z332" s="15">
         <f t="shared" si="20"/>
         <v>140304</v>
@@ -20063,7 +20288,7 @@
         <v>pack,315</v>
       </c>
     </row>
-    <row r="333" spans="26:33">
+    <row r="333" spans="26:33" x14ac:dyDescent="0.15">
       <c r="Z333" s="15">
         <f t="shared" si="20"/>
         <v>140314</v>
@@ -20090,7 +20315,7 @@
         <v>pack,315</v>
       </c>
     </row>
-    <row r="334" spans="26:33">
+    <row r="334" spans="26:33" x14ac:dyDescent="0.15">
       <c r="Z334" s="15">
         <f t="shared" si="20"/>
         <v>140324</v>
@@ -20117,7 +20342,7 @@
         <v>pack,315</v>
       </c>
     </row>
-    <row r="335" spans="26:33">
+    <row r="335" spans="26:33" x14ac:dyDescent="0.15">
       <c r="Z335" s="15">
         <f t="shared" si="20"/>
         <v>140334</v>
@@ -20144,7 +20369,7 @@
         <v>pack,315</v>
       </c>
     </row>
-    <row r="336" spans="26:33">
+    <row r="336" spans="26:33" x14ac:dyDescent="0.15">
       <c r="Z336" s="15">
         <f t="shared" si="20"/>
         <v>140344</v>
@@ -20171,7 +20396,7 @@
         <v>pack,315</v>
       </c>
     </row>
-    <row r="337" spans="26:33">
+    <row r="337" spans="26:33" x14ac:dyDescent="0.15">
       <c r="Z337" s="15">
         <f t="shared" si="20"/>
         <v>140354</v>
@@ -20198,7 +20423,7 @@
         <v>pack,315</v>
       </c>
     </row>
-    <row r="338" spans="26:33">
+    <row r="338" spans="26:33" x14ac:dyDescent="0.15">
       <c r="Z338" s="15">
         <f t="shared" si="20"/>
         <v>140364</v>
@@ -20225,7 +20450,7 @@
         <v>pack,315</v>
       </c>
     </row>
-    <row r="339" spans="26:33">
+    <row r="339" spans="26:33" x14ac:dyDescent="0.15">
       <c r="Z339" s="15">
         <f t="shared" si="20"/>
         <v>140374</v>
@@ -20252,7 +20477,7 @@
         <v>pack,315</v>
       </c>
     </row>
-    <row r="340" spans="26:33">
+    <row r="340" spans="26:33" x14ac:dyDescent="0.15">
       <c r="Z340" s="15">
         <f t="shared" si="20"/>
         <v>140384</v>
@@ -20279,7 +20504,7 @@
         <v>pack,315</v>
       </c>
     </row>
-    <row r="341" spans="26:33">
+    <row r="341" spans="26:33" x14ac:dyDescent="0.15">
       <c r="Z341" s="15">
         <f t="shared" si="20"/>
         <v>140394</v>
@@ -20306,7 +20531,7 @@
         <v>pack,316</v>
       </c>
     </row>
-    <row r="342" spans="26:33">
+    <row r="342" spans="26:33" x14ac:dyDescent="0.15">
       <c r="Z342" s="15">
         <f t="shared" si="20"/>
         <v>140404</v>
@@ -20333,7 +20558,7 @@
         <v>pack,316</v>
       </c>
     </row>
-    <row r="343" spans="26:33">
+    <row r="343" spans="26:33" x14ac:dyDescent="0.15">
       <c r="Z343" s="15">
         <f t="shared" si="20"/>
         <v>140414</v>
@@ -20360,7 +20585,7 @@
         <v>pack,316</v>
       </c>
     </row>
-    <row r="344" spans="26:33">
+    <row r="344" spans="26:33" x14ac:dyDescent="0.15">
       <c r="Z344" s="15">
         <f t="shared" si="20"/>
         <v>140424</v>
@@ -20387,7 +20612,7 @@
         <v>pack,316</v>
       </c>
     </row>
-    <row r="345" spans="26:33">
+    <row r="345" spans="26:33" x14ac:dyDescent="0.15">
       <c r="Z345" s="15">
         <f t="shared" si="20"/>
         <v>140434</v>
@@ -20414,7 +20639,7 @@
         <v>pack,316</v>
       </c>
     </row>
-    <row r="346" spans="26:33">
+    <row r="346" spans="26:33" x14ac:dyDescent="0.15">
       <c r="Z346" s="15">
         <f t="shared" si="20"/>
         <v>140444</v>
@@ -20441,7 +20666,7 @@
         <v>pack,316</v>
       </c>
     </row>
-    <row r="347" spans="26:33">
+    <row r="347" spans="26:33" x14ac:dyDescent="0.15">
       <c r="Z347" s="15">
         <f t="shared" si="20"/>
         <v>140454</v>
@@ -20468,7 +20693,7 @@
         <v>pack,316</v>
       </c>
     </row>
-    <row r="348" spans="26:33">
+    <row r="348" spans="26:33" x14ac:dyDescent="0.15">
       <c r="Z348" s="15">
         <f t="shared" si="20"/>
         <v>140464</v>
@@ -20495,7 +20720,7 @@
         <v>pack,316</v>
       </c>
     </row>
-    <row r="349" spans="26:33">
+    <row r="349" spans="26:33" x14ac:dyDescent="0.15">
       <c r="Z349" s="15">
         <f t="shared" si="20"/>
         <v>140474</v>
@@ -20522,7 +20747,7 @@
         <v>pack,316</v>
       </c>
     </row>
-    <row r="350" spans="26:33">
+    <row r="350" spans="26:33" x14ac:dyDescent="0.15">
       <c r="Z350" s="15">
         <f t="shared" si="20"/>
         <v>140484</v>
@@ -20549,7 +20774,7 @@
         <v>pack,316</v>
       </c>
     </row>
-    <row r="351" spans="26:33">
+    <row r="351" spans="26:33" x14ac:dyDescent="0.15">
       <c r="Z351" s="15">
         <f t="shared" si="20"/>
         <v>140494</v>
@@ -20576,7 +20801,7 @@
         <v>pack,316</v>
       </c>
     </row>
-    <row r="352" spans="26:33">
+    <row r="352" spans="26:33" x14ac:dyDescent="0.15">
       <c r="Z352" s="15">
         <f t="shared" si="20"/>
         <v>140504</v>
@@ -20603,7 +20828,7 @@
         <v>pack,316</v>
       </c>
     </row>
-    <row r="353" spans="26:33">
+    <row r="353" spans="26:33" x14ac:dyDescent="0.15">
       <c r="Z353" s="15">
         <f t="shared" si="20"/>
         <v>140514</v>
@@ -20630,7 +20855,7 @@
         <v>pack,316</v>
       </c>
     </row>
-    <row r="354" spans="26:33">
+    <row r="354" spans="26:33" x14ac:dyDescent="0.15">
       <c r="Z354" s="15">
         <f t="shared" si="20"/>
         <v>140524</v>
@@ -20657,7 +20882,7 @@
         <v>pack,316</v>
       </c>
     </row>
-    <row r="355" spans="26:33">
+    <row r="355" spans="26:33" x14ac:dyDescent="0.15">
       <c r="Z355" s="15">
         <f t="shared" si="20"/>
         <v>140534</v>
@@ -20684,7 +20909,7 @@
         <v>pack,316</v>
       </c>
     </row>
-    <row r="356" spans="26:33">
+    <row r="356" spans="26:33" x14ac:dyDescent="0.15">
       <c r="Z356" s="15">
         <f t="shared" si="20"/>
         <v>140544</v>
@@ -20711,7 +20936,7 @@
         <v>pack,316</v>
       </c>
     </row>
-    <row r="357" spans="26:33">
+    <row r="357" spans="26:33" x14ac:dyDescent="0.15">
       <c r="Z357" s="15">
         <f t="shared" si="20"/>
         <v>140554</v>
@@ -20738,7 +20963,7 @@
         <v>pack,316</v>
       </c>
     </row>
-    <row r="358" spans="26:33">
+    <row r="358" spans="26:33" x14ac:dyDescent="0.15">
       <c r="Z358" s="15">
         <f t="shared" si="20"/>
         <v>140564</v>
@@ -20765,7 +20990,7 @@
         <v>pack,316</v>
       </c>
     </row>
-    <row r="359" spans="26:33">
+    <row r="359" spans="26:33" x14ac:dyDescent="0.15">
       <c r="Z359" s="15">
         <f t="shared" si="20"/>
         <v>140574</v>
@@ -20792,7 +21017,7 @@
         <v>pack,316</v>
       </c>
     </row>
-    <row r="360" spans="26:33">
+    <row r="360" spans="26:33" x14ac:dyDescent="0.15">
       <c r="Z360" s="15">
         <f t="shared" si="20"/>
         <v>140584</v>
@@ -20819,7 +21044,7 @@
         <v>pack,316</v>
       </c>
     </row>
-    <row r="361" spans="26:33">
+    <row r="361" spans="26:33" x14ac:dyDescent="0.15">
       <c r="Z361" s="15">
         <f t="shared" si="20"/>
         <v>140594</v>
@@ -20846,7 +21071,7 @@
         <v>pack,317</v>
       </c>
     </row>
-    <row r="362" spans="26:33">
+    <row r="362" spans="26:33" x14ac:dyDescent="0.15">
       <c r="Z362" s="15">
         <f t="shared" si="20"/>
         <v>140604</v>
@@ -20873,7 +21098,7 @@
         <v>pack,317</v>
       </c>
     </row>
-    <row r="363" spans="26:33">
+    <row r="363" spans="26:33" x14ac:dyDescent="0.15">
       <c r="Z363" s="15">
         <f t="shared" si="20"/>
         <v>140614</v>
@@ -20900,7 +21125,7 @@
         <v>pack,317</v>
       </c>
     </row>
-    <row r="364" spans="26:33">
+    <row r="364" spans="26:33" x14ac:dyDescent="0.15">
       <c r="Z364" s="15">
         <f t="shared" si="20"/>
         <v>140624</v>
@@ -20927,7 +21152,7 @@
         <v>pack,317</v>
       </c>
     </row>
-    <row r="365" spans="26:33">
+    <row r="365" spans="26:33" x14ac:dyDescent="0.15">
       <c r="Z365" s="15">
         <f t="shared" si="20"/>
         <v>140634</v>
@@ -20954,7 +21179,7 @@
         <v>pack,317</v>
       </c>
     </row>
-    <row r="366" spans="26:33">
+    <row r="366" spans="26:33" x14ac:dyDescent="0.15">
       <c r="Z366" s="15">
         <f t="shared" si="20"/>
         <v>140644</v>
@@ -20981,7 +21206,7 @@
         <v>pack,317</v>
       </c>
     </row>
-    <row r="367" spans="26:33">
+    <row r="367" spans="26:33" x14ac:dyDescent="0.15">
       <c r="Z367" s="15">
         <f t="shared" si="20"/>
         <v>140654</v>
@@ -21008,7 +21233,7 @@
         <v>pack,317</v>
       </c>
     </row>
-    <row r="368" spans="26:33">
+    <row r="368" spans="26:33" x14ac:dyDescent="0.15">
       <c r="Z368" s="15">
         <f t="shared" si="20"/>
         <v>140664</v>
@@ -21035,7 +21260,7 @@
         <v>pack,317</v>
       </c>
     </row>
-    <row r="369" spans="26:33">
+    <row r="369" spans="26:33" x14ac:dyDescent="0.15">
       <c r="Z369" s="15">
         <f t="shared" si="20"/>
         <v>140674</v>
@@ -21062,7 +21287,7 @@
         <v>pack,317</v>
       </c>
     </row>
-    <row r="370" spans="26:33">
+    <row r="370" spans="26:33" x14ac:dyDescent="0.15">
       <c r="Z370" s="15">
         <f t="shared" si="20"/>
         <v>140684</v>
@@ -21089,7 +21314,7 @@
         <v>pack,317</v>
       </c>
     </row>
-    <row r="371" spans="26:33">
+    <row r="371" spans="26:33" x14ac:dyDescent="0.15">
       <c r="Z371" s="15">
         <f t="shared" si="20"/>
         <v>140694</v>
@@ -21116,7 +21341,7 @@
         <v>pack,317</v>
       </c>
     </row>
-    <row r="372" spans="26:33">
+    <row r="372" spans="26:33" x14ac:dyDescent="0.15">
       <c r="Z372" s="15">
         <f t="shared" si="20"/>
         <v>140704</v>
@@ -21143,7 +21368,7 @@
         <v>pack,317</v>
       </c>
     </row>
-    <row r="373" spans="26:33">
+    <row r="373" spans="26:33" x14ac:dyDescent="0.15">
       <c r="Z373" s="15">
         <f t="shared" si="20"/>
         <v>140714</v>
@@ -21170,7 +21395,7 @@
         <v>pack,317</v>
       </c>
     </row>
-    <row r="374" spans="26:33">
+    <row r="374" spans="26:33" x14ac:dyDescent="0.15">
       <c r="Z374" s="15">
         <f t="shared" si="20"/>
         <v>140724</v>
@@ -21197,7 +21422,7 @@
         <v>pack,317</v>
       </c>
     </row>
-    <row r="375" spans="26:33">
+    <row r="375" spans="26:33" x14ac:dyDescent="0.15">
       <c r="Z375" s="15">
         <f t="shared" si="20"/>
         <v>140734</v>
@@ -21224,7 +21449,7 @@
         <v>pack,317</v>
       </c>
     </row>
-    <row r="376" spans="26:33">
+    <row r="376" spans="26:33" x14ac:dyDescent="0.15">
       <c r="Z376" s="15">
         <f t="shared" si="20"/>
         <v>140744</v>
@@ -21251,7 +21476,7 @@
         <v>pack,317</v>
       </c>
     </row>
-    <row r="377" spans="26:33">
+    <row r="377" spans="26:33" x14ac:dyDescent="0.15">
       <c r="Z377" s="15">
         <f t="shared" si="20"/>
         <v>140754</v>
@@ -21278,7 +21503,7 @@
         <v>pack,317</v>
       </c>
     </row>
-    <row r="378" spans="26:33">
+    <row r="378" spans="26:33" x14ac:dyDescent="0.15">
       <c r="Z378" s="15">
         <f t="shared" si="20"/>
         <v>140764</v>
@@ -21305,7 +21530,7 @@
         <v>pack,317</v>
       </c>
     </row>
-    <row r="379" spans="26:33">
+    <row r="379" spans="26:33" x14ac:dyDescent="0.15">
       <c r="Z379" s="15">
         <f t="shared" si="20"/>
         <v>140774</v>
@@ -21332,7 +21557,7 @@
         <v>pack,317</v>
       </c>
     </row>
-    <row r="380" spans="26:33">
+    <row r="380" spans="26:33" x14ac:dyDescent="0.15">
       <c r="Z380" s="15">
         <f t="shared" si="20"/>
         <v>140784</v>
@@ -21359,7 +21584,7 @@
         <v>pack,317</v>
       </c>
     </row>
-    <row r="381" spans="26:33">
+    <row r="381" spans="26:33" x14ac:dyDescent="0.15">
       <c r="Z381" s="15">
         <f t="shared" si="20"/>
         <v>140794</v>
@@ -21386,7 +21611,7 @@
         <v>pack,317</v>
       </c>
     </row>
-    <row r="382" spans="26:33">
+    <row r="382" spans="26:33" x14ac:dyDescent="0.15">
       <c r="Z382" s="15">
         <f t="shared" si="20"/>
         <v>140804</v>
@@ -21413,7 +21638,7 @@
         <v>pack,317</v>
       </c>
     </row>
-    <row r="383" spans="26:33">
+    <row r="383" spans="26:33" x14ac:dyDescent="0.15">
       <c r="Z383" s="15">
         <f t="shared" si="20"/>
         <v>140814</v>
@@ -21440,7 +21665,7 @@
         <v>pack,317</v>
       </c>
     </row>
-    <row r="384" spans="26:33">
+    <row r="384" spans="26:33" x14ac:dyDescent="0.15">
       <c r="Z384" s="15">
         <f t="shared" si="20"/>
         <v>140824</v>
@@ -21467,7 +21692,7 @@
         <v>pack,317</v>
       </c>
     </row>
-    <row r="385" spans="26:33">
+    <row r="385" spans="26:33" x14ac:dyDescent="0.15">
       <c r="Z385" s="15">
         <f t="shared" si="20"/>
         <v>140834</v>
@@ -21494,7 +21719,7 @@
         <v>pack,317</v>
       </c>
     </row>
-    <row r="386" spans="26:33">
+    <row r="386" spans="26:33" x14ac:dyDescent="0.15">
       <c r="Z386" s="15">
         <f t="shared" si="20"/>
         <v>140844</v>
@@ -21521,7 +21746,7 @@
         <v>pack,317</v>
       </c>
     </row>
-    <row r="387" spans="26:33">
+    <row r="387" spans="26:33" x14ac:dyDescent="0.15">
       <c r="Z387" s="15">
         <f t="shared" si="20"/>
         <v>140854</v>
@@ -21548,7 +21773,7 @@
         <v>pack,317</v>
       </c>
     </row>
-    <row r="388" spans="26:33">
+    <row r="388" spans="26:33" x14ac:dyDescent="0.15">
       <c r="Z388" s="15">
         <f t="shared" ref="Z388:Z402" si="24">100000+AA388*10+AB388</f>
         <v>140864</v>
@@ -21575,7 +21800,7 @@
         <v>pack,317</v>
       </c>
     </row>
-    <row r="389" spans="26:33">
+    <row r="389" spans="26:33" x14ac:dyDescent="0.15">
       <c r="Z389" s="15">
         <f t="shared" si="24"/>
         <v>140874</v>
@@ -21602,7 +21827,7 @@
         <v>pack,317</v>
       </c>
     </row>
-    <row r="390" spans="26:33">
+    <row r="390" spans="26:33" x14ac:dyDescent="0.15">
       <c r="Z390" s="15">
         <f t="shared" si="24"/>
         <v>140884</v>
@@ -21629,7 +21854,7 @@
         <v>pack,317</v>
       </c>
     </row>
-    <row r="391" spans="26:33">
+    <row r="391" spans="26:33" x14ac:dyDescent="0.15">
       <c r="Z391" s="15">
         <f t="shared" si="24"/>
         <v>140894</v>
@@ -21656,7 +21881,7 @@
         <v>pack,317</v>
       </c>
     </row>
-    <row r="392" spans="26:33">
+    <row r="392" spans="26:33" x14ac:dyDescent="0.15">
       <c r="Z392" s="15">
         <f t="shared" si="24"/>
         <v>140904</v>
@@ -21683,7 +21908,7 @@
         <v>pack,317</v>
       </c>
     </row>
-    <row r="393" spans="26:33">
+    <row r="393" spans="26:33" x14ac:dyDescent="0.15">
       <c r="Z393" s="15">
         <f t="shared" si="24"/>
         <v>140914</v>
@@ -21710,7 +21935,7 @@
         <v>pack,317</v>
       </c>
     </row>
-    <row r="394" spans="26:33">
+    <row r="394" spans="26:33" x14ac:dyDescent="0.15">
       <c r="Z394" s="15">
         <f t="shared" si="24"/>
         <v>140924</v>
@@ -21737,7 +21962,7 @@
         <v>pack,317</v>
       </c>
     </row>
-    <row r="395" spans="26:33">
+    <row r="395" spans="26:33" x14ac:dyDescent="0.15">
       <c r="Z395" s="15">
         <f t="shared" si="24"/>
         <v>140934</v>
@@ -21764,7 +21989,7 @@
         <v>pack,317</v>
       </c>
     </row>
-    <row r="396" spans="26:33">
+    <row r="396" spans="26:33" x14ac:dyDescent="0.15">
       <c r="Z396" s="15">
         <f t="shared" si="24"/>
         <v>140944</v>
@@ -21791,7 +22016,7 @@
         <v>pack,317</v>
       </c>
     </row>
-    <row r="397" spans="26:33">
+    <row r="397" spans="26:33" x14ac:dyDescent="0.15">
       <c r="Z397" s="15">
         <f t="shared" si="24"/>
         <v>140954</v>
@@ -21818,7 +22043,7 @@
         <v>pack,317</v>
       </c>
     </row>
-    <row r="398" spans="26:33">
+    <row r="398" spans="26:33" x14ac:dyDescent="0.15">
       <c r="Z398" s="15">
         <f t="shared" si="24"/>
         <v>140964</v>
@@ -21845,7 +22070,7 @@
         <v>pack,317</v>
       </c>
     </row>
-    <row r="399" spans="26:33">
+    <row r="399" spans="26:33" x14ac:dyDescent="0.15">
       <c r="Z399" s="15">
         <f t="shared" si="24"/>
         <v>140974</v>
@@ -21872,7 +22097,7 @@
         <v>pack,317</v>
       </c>
     </row>
-    <row r="400" spans="26:33">
+    <row r="400" spans="26:33" x14ac:dyDescent="0.15">
       <c r="Z400" s="15">
         <f t="shared" si="24"/>
         <v>140984</v>
@@ -21899,7 +22124,7 @@
         <v>pack,317</v>
       </c>
     </row>
-    <row r="401" spans="26:33">
+    <row r="401" spans="26:33" x14ac:dyDescent="0.15">
       <c r="Z401" s="15">
         <f t="shared" si="24"/>
         <v>140994</v>
@@ -21926,7 +22151,7 @@
         <v>pack,317</v>
       </c>
     </row>
-    <row r="402" spans="26:33">
+    <row r="402" spans="26:33" x14ac:dyDescent="0.15">
       <c r="Z402" s="15">
         <f t="shared" si="24"/>
         <v>141004</v>
@@ -21961,19 +22186,19 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54EBD6CB-4216-4CE3-841F-E527890BEA5F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G243"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="20.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="str">
         <f>[1]物品定价!A1</f>
         <v>代币</v>
@@ -22003,7 +22228,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <f>[1]物品定价!A2</f>
         <v>0</v>
@@ -22033,7 +22258,7 @@
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <f>[1]物品定价!A3</f>
         <v>0</v>
@@ -22063,7 +22288,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <f>[1]物品定价!A4</f>
         <v>0</v>
@@ -22093,7 +22318,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <f>[1]物品定价!A5</f>
         <v>0</v>
@@ -22123,7 +22348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <f>[1]物品定价!A6</f>
         <v>0</v>
@@ -22153,7 +22378,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <f>[1]物品定价!A7</f>
         <v>0</v>
@@ -22183,7 +22408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <f>[1]物品定价!A8</f>
         <v>0</v>
@@ -22213,7 +22438,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <f>[1]物品定价!A9</f>
         <v>0</v>
@@ -22243,7 +22468,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <f>[1]物品定价!A10</f>
         <v>0</v>
@@ -22273,7 +22498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <f>[1]物品定价!A11</f>
         <v>0</v>
@@ -22303,7 +22528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="str">
         <f>[1]物品定价!A12</f>
         <v>其他类型</v>
@@ -22333,7 +22558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <f>[1]物品定价!A13</f>
         <v>0</v>
@@ -22363,7 +22588,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <f>[1]物品定价!A14</f>
         <v>0</v>
@@ -22393,7 +22618,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <f>[1]物品定价!A15</f>
         <v>0</v>
@@ -22423,7 +22648,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <f>[1]物品定价!A16</f>
         <v>0</v>
@@ -22453,7 +22678,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <f>[1]物品定价!A17</f>
         <v>0</v>
@@ -22483,7 +22708,7 @@
         <v>4800</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <f>[1]物品定价!A18</f>
         <v>0</v>
@@ -22513,7 +22738,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <f>[1]物品定价!A19</f>
         <v>0</v>
@@ -22543,7 +22768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <f>[1]物品定价!A20</f>
         <v>0</v>
@@ -22573,7 +22798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <f>[1]物品定价!A21</f>
         <v>0</v>
@@ -22603,7 +22828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="str">
         <f>[1]物品定价!A22</f>
         <v>卡牌</v>
@@ -22633,7 +22858,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <f>[1]物品定价!A23</f>
         <v>0</v>
@@ -22663,7 +22888,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <f>[1]物品定价!A24</f>
         <v>0</v>
@@ -22693,7 +22918,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <f>[1]物品定价!A25</f>
         <v>0</v>
@@ -22723,7 +22948,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <f>[1]物品定价!A26</f>
         <v>0</v>
@@ -22753,7 +22978,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <f>[1]物品定价!A27</f>
         <v>0</v>
@@ -22783,7 +23008,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <f>[1]物品定价!A28</f>
         <v>0</v>
@@ -22813,7 +23038,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <f>[1]物品定价!A29</f>
         <v>0</v>
@@ -22843,7 +23068,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <f>[1]物品定价!A30</f>
         <v>0</v>
@@ -22873,7 +23098,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="str">
         <f>[1]物品定价!A31</f>
         <v>道具表</v>
@@ -22903,7 +23128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="str">
         <f>[1]物品定价!A32</f>
         <v>ID</v>
@@ -22933,7 +23158,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:7">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <f>[1]物品定价!A33</f>
         <v>101</v>
@@ -22963,7 +23188,7 @@
         <v>1.2000000000000002</v>
       </c>
     </row>
-    <row r="34" spans="1:7">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <f>[1]物品定价!A34</f>
         <v>102</v>
@@ -22993,7 +23218,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:7">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <f>[1]物品定价!A35</f>
         <v>103</v>
@@ -23023,7 +23248,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="36" spans="1:7">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <f>[1]物品定价!A36</f>
         <v>104</v>
@@ -23053,7 +23278,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="37" spans="1:7">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <f>[1]物品定价!A37</f>
         <v>105</v>
@@ -23083,7 +23308,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="38" spans="1:7">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <f>[1]物品定价!A38</f>
         <v>106</v>
@@ -23113,7 +23338,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="39" spans="1:7">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <f>[1]物品定价!A39</f>
         <v>201</v>
@@ -23143,7 +23368,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:7">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <f>[1]物品定价!A40</f>
         <v>202</v>
@@ -23173,7 +23398,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="41" spans="1:7">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <f>[1]物品定价!A41</f>
         <v>203</v>
@@ -23203,7 +23428,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="42" spans="1:7">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <f>[1]物品定价!A42</f>
         <v>204</v>
@@ -23233,7 +23458,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="43" spans="1:7">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <f>[1]物品定价!A43</f>
         <v>205</v>
@@ -23263,7 +23488,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="44" spans="1:7">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <f>[1]物品定价!A44</f>
         <v>206</v>
@@ -23293,7 +23518,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="45" spans="1:7">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <f>[1]物品定价!A45</f>
         <v>207</v>
@@ -23323,7 +23548,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="46" spans="1:7">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <f>[1]物品定价!A46</f>
         <v>208</v>
@@ -23353,7 +23578,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="47" spans="1:7">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <f>[1]物品定价!A47</f>
         <v>209</v>
@@ -23383,7 +23608,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="48" spans="1:7">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <f>[1]物品定价!A48</f>
         <v>210</v>
@@ -23413,7 +23638,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="49" spans="1:7">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <f>[1]物品定价!A49</f>
         <v>211</v>
@@ -23443,7 +23668,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="50" spans="1:7">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <f>[1]物品定价!A50</f>
         <v>212</v>
@@ -23473,7 +23698,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="51" spans="1:7">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <f>[1]物品定价!A51</f>
         <v>213</v>
@@ -23503,7 +23728,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="52" spans="1:7">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <f>[1]物品定价!A52</f>
         <v>214</v>
@@ -23533,7 +23758,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="53" spans="1:7">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <f>[1]物品定价!A53</f>
         <v>301</v>
@@ -23563,7 +23788,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="54" spans="1:7">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <f>[1]物品定价!A54</f>
         <v>302</v>
@@ -23593,7 +23818,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="55" spans="1:7">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <f>[1]物品定价!A55</f>
         <v>303</v>
@@ -23623,7 +23848,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="56" spans="1:7">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <f>[1]物品定价!A56</f>
         <v>304</v>
@@ -23653,7 +23878,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="57" spans="1:7">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <f>[1]物品定价!A57</f>
         <v>305</v>
@@ -23683,7 +23908,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="58" spans="1:7">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <f>[1]物品定价!A58</f>
         <v>306</v>
@@ -23713,7 +23938,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="59" spans="1:7">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
         <f>[1]物品定价!A59</f>
         <v>307</v>
@@ -23743,7 +23968,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="60" spans="1:7">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
         <f>[1]物品定价!A60</f>
         <v>308</v>
@@ -23773,7 +23998,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="61" spans="1:7">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
         <f>[1]物品定价!A61</f>
         <v>309</v>
@@ -23803,7 +24028,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="62" spans="1:7">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
         <f>[1]物品定价!A62</f>
         <v>310</v>
@@ -23833,7 +24058,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="63" spans="1:7">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
         <f>[1]物品定价!A63</f>
         <v>311</v>
@@ -23863,7 +24088,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="64" spans="1:7">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
         <f>[1]物品定价!A64</f>
         <v>312</v>
@@ -23893,7 +24118,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="65" spans="1:7">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
         <f>[1]物品定价!A65</f>
         <v>313</v>
@@ -23923,7 +24148,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="66" spans="1:7">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
         <f>[1]物品定价!A66</f>
         <v>314</v>
@@ -23953,7 +24178,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="67" spans="1:7">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
         <f>[1]物品定价!A67</f>
         <v>315</v>
@@ -23983,7 +24208,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="68" spans="1:7">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
         <f>[1]物品定价!A68</f>
         <v>316</v>
@@ -24013,7 +24238,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="69" spans="1:7">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
         <f>[1]物品定价!A69</f>
         <v>317</v>
@@ -24043,7 +24268,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="70" spans="1:7">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
         <f>[1]物品定价!A70</f>
         <v>318</v>
@@ -24073,7 +24298,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="71" spans="1:7">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
         <f>[1]物品定价!A71</f>
         <v>319</v>
@@ -24103,7 +24328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:7">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
         <f>[1]物品定价!A72</f>
         <v>320</v>
@@ -24133,7 +24358,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:7">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
         <f>[1]物品定价!A73</f>
         <v>321</v>
@@ -24163,7 +24388,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:7">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
         <f>[1]物品定价!A74</f>
         <v>322</v>
@@ -24193,7 +24418,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="75" spans="1:7">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
         <f>[1]物品定价!A75</f>
         <v>323</v>
@@ -24223,7 +24448,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="76" spans="1:7">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
         <f>[1]物品定价!A76</f>
         <v>401</v>
@@ -24253,7 +24478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:7">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
         <f>[1]物品定价!A77</f>
         <v>402</v>
@@ -24283,7 +24508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:7">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
         <f>[1]物品定价!A78</f>
         <v>403</v>
@@ -24313,7 +24538,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="79" spans="1:7">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
         <f>[1]物品定价!A79</f>
         <v>502</v>
@@ -24343,7 +24568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:7">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
         <f>[1]物品定价!A80</f>
         <v>503</v>
@@ -24373,7 +24598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:7">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
         <f>[1]物品定价!A81</f>
         <v>504</v>
@@ -24403,7 +24628,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:7">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
         <f>[1]物品定价!A82</f>
         <v>505</v>
@@ -24433,7 +24658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:7">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
         <f>[1]物品定价!A83</f>
         <v>508</v>
@@ -24463,7 +24688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:7">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
         <f>[1]物品定价!A84</f>
         <v>509</v>
@@ -24493,7 +24718,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:7">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A85" s="1">
         <f>[1]物品定价!A85</f>
         <v>510</v>
@@ -24523,7 +24748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:7">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
         <f>[1]物品定价!A86</f>
         <v>511</v>
@@ -24553,7 +24778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:7">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
         <f>[1]物品定价!A87</f>
         <v>512</v>
@@ -24583,7 +24808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:7">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
         <f>[1]物品定价!A88</f>
         <v>513</v>
@@ -24613,7 +24838,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:7">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
         <f>[1]物品定价!A89</f>
         <v>514</v>
@@ -24643,7 +24868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:7">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A90" s="1">
         <f>[1]物品定价!A90</f>
         <v>515</v>
@@ -24673,7 +24898,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:7">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A91" s="1">
         <f>[1]物品定价!A91</f>
         <v>516</v>
@@ -24703,7 +24928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:7">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A92" s="1">
         <f>[1]物品定价!A92</f>
         <v>517</v>
@@ -24733,7 +24958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:7">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A93" s="1">
         <f>[1]物品定价!A93</f>
         <v>518</v>
@@ -24763,7 +24988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:7">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A94" s="1">
         <f>[1]物品定价!A94</f>
         <v>519</v>
@@ -24793,7 +25018,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:7">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A95" s="1">
         <f>[1]物品定价!A95</f>
         <v>520</v>
@@ -24823,7 +25048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:7">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A96" s="1">
         <f>[1]物品定价!A96</f>
         <v>521</v>
@@ -24853,7 +25078,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:7">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A97" s="1">
         <f>[1]物品定价!A97</f>
         <v>522</v>
@@ -24883,7 +25108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:7">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A98" s="1">
         <f>[1]物品定价!A98</f>
         <v>523</v>
@@ -24913,7 +25138,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:7">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A99" s="1">
         <f>[1]物品定价!A99</f>
         <v>524</v>
@@ -24943,7 +25168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:7">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A100" s="1">
         <f>[1]物品定价!A100</f>
         <v>525</v>
@@ -24973,7 +25198,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:7">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A101" s="1">
         <f>[1]物品定价!A101</f>
         <v>526</v>
@@ -25003,7 +25228,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:7">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A102" s="1">
         <f>[1]物品定价!A102</f>
         <v>527</v>
@@ -25033,7 +25258,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:7">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A103" s="1">
         <f>[1]物品定价!A103</f>
         <v>529</v>
@@ -25063,7 +25288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:7">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A104" s="1">
         <f>[1]物品定价!A104</f>
         <v>530</v>
@@ -25093,7 +25318,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:7">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A105" s="1">
         <f>[1]物品定价!A105</f>
         <v>531</v>
@@ -25123,7 +25348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:7">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A106" s="1">
         <f>[1]物品定价!A106</f>
         <v>532</v>
@@ -25153,7 +25378,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:7">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A107" s="1">
         <f>[1]物品定价!A107</f>
         <v>533</v>
@@ -25183,7 +25408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:7">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A108" s="1">
         <f>[1]物品定价!A108</f>
         <v>534</v>
@@ -25213,7 +25438,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:7">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A109" s="1">
         <f>[1]物品定价!A109</f>
         <v>535</v>
@@ -25243,7 +25468,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:7">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A110" s="1">
         <f>[1]物品定价!A110</f>
         <v>536</v>
@@ -25273,7 +25498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:7">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A111" s="1">
         <f>[1]物品定价!A111</f>
         <v>537</v>
@@ -25303,7 +25528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:7">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A112" s="1">
         <f>[1]物品定价!A112</f>
         <v>538</v>
@@ -25333,7 +25558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:7">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A113" s="1">
         <f>[1]物品定价!A113</f>
         <v>539</v>
@@ -25363,7 +25588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:7">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A114" s="1">
         <f>[1]物品定价!A114</f>
         <v>540</v>
@@ -25393,7 +25618,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:7">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A115" s="1">
         <f>[1]物品定价!A115</f>
         <v>541</v>
@@ -25423,7 +25648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:7">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A116" s="1">
         <f>[1]物品定价!A116</f>
         <v>542</v>
@@ -25453,7 +25678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:7">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A117" s="1">
         <f>[1]物品定价!A117</f>
         <v>543</v>
@@ -25483,7 +25708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:7">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A118" s="1">
         <f>[1]物品定价!A118</f>
         <v>544</v>
@@ -25513,7 +25738,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:7">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A119" s="1">
         <f>[1]物品定价!A119</f>
         <v>545</v>
@@ -25543,7 +25768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:7">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A120" s="1">
         <f>[1]物品定价!A120</f>
         <v>546</v>
@@ -25573,7 +25798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:7">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A121" s="1">
         <f>[1]物品定价!A121</f>
         <v>547</v>
@@ -25603,7 +25828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:7">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A122" s="1">
         <f>[1]物品定价!A122</f>
         <v>548</v>
@@ -25633,7 +25858,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:7">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A123" s="1">
         <f>[1]物品定价!A123</f>
         <v>549</v>
@@ -25663,7 +25888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:7">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A124" s="1">
         <f>[1]物品定价!A124</f>
         <v>551</v>
@@ -25693,7 +25918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:7">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A125" s="1">
         <f>[1]物品定价!A125</f>
         <v>552</v>
@@ -25723,7 +25948,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:7">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A126" s="1">
         <f>[1]物品定价!A126</f>
         <v>553</v>
@@ -25753,7 +25978,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:7">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A127" s="1">
         <f>[1]物品定价!A127</f>
         <v>554</v>
@@ -25783,7 +26008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:7">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A128" s="1">
         <f>[1]物品定价!A128</f>
         <v>555</v>
@@ -25813,7 +26038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:7">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A129" s="1">
         <f>[1]物品定价!A129</f>
         <v>556</v>
@@ -25843,7 +26068,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:7">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A130" s="1">
         <f>[1]物品定价!A130</f>
         <v>557</v>
@@ -25873,7 +26098,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:7">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A131" s="1">
         <f>[1]物品定价!A131</f>
         <v>558</v>
@@ -25903,7 +26128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:7">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A132" s="1">
         <f>[1]物品定价!A132</f>
         <v>559</v>
@@ -25933,7 +26158,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:7">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A133" s="1">
         <f>[1]物品定价!A133</f>
         <v>609</v>
@@ -25963,7 +26188,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:7">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A134" s="1">
         <f>[1]物品定价!A134</f>
         <v>610</v>
@@ -25993,7 +26218,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:7">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A135" s="1">
         <f>[1]物品定价!A135</f>
         <v>611</v>
@@ -26023,7 +26248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:7">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A136" s="1">
         <f>[1]物品定价!A136</f>
         <v>612</v>
@@ -26053,7 +26278,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:7">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A137" s="1">
         <f>[1]物品定价!A137</f>
         <v>613</v>
@@ -26083,7 +26308,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:7">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A138" s="1">
         <f>[1]物品定价!A138</f>
         <v>614</v>
@@ -26113,7 +26338,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:7">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A139" s="1">
         <f>[1]物品定价!A139</f>
         <v>615</v>
@@ -26143,7 +26368,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:7">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A140" s="1">
         <f>[1]物品定价!A140</f>
         <v>616</v>
@@ -26173,7 +26398,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:7">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A141" s="1">
         <f>[1]物品定价!A141</f>
         <v>617</v>
@@ -26203,7 +26428,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:7">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A142" s="1">
         <f>[1]物品定价!A142</f>
         <v>618</v>
@@ -26233,7 +26458,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:7">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A143" s="1">
         <f>[1]物品定价!A143</f>
         <v>619</v>
@@ -26263,7 +26488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:7">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A144" s="1">
         <f>[1]物品定价!A144</f>
         <v>620</v>
@@ -26293,7 +26518,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:7">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A145" s="1">
         <f>[1]物品定价!A145</f>
         <v>621</v>
@@ -26323,7 +26548,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:7">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A146" s="1">
         <f>[1]物品定价!A146</f>
         <v>622</v>
@@ -26353,7 +26578,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:7">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A147" s="1">
         <f>[1]物品定价!A147</f>
         <v>623</v>
@@ -26383,7 +26608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:7">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A148" s="1">
         <f>[1]物品定价!A148</f>
         <v>624</v>
@@ -26413,7 +26638,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:7">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A149" s="1">
         <f>[1]物品定价!A149</f>
         <v>601</v>
@@ -26443,7 +26668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:7">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A150" s="1">
         <f>[1]物品定价!A150</f>
         <v>602</v>
@@ -26473,7 +26698,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:7">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A151" s="1">
         <f>[1]物品定价!A151</f>
         <v>603</v>
@@ -26503,7 +26728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:7">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A152" s="1">
         <f>[1]物品定价!A152</f>
         <v>604</v>
@@ -26533,7 +26758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:7">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A153" s="1">
         <f>[1]物品定价!A153</f>
         <v>605</v>
@@ -26563,7 +26788,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:7">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A154" s="1">
         <f>[1]物品定价!A154</f>
         <v>606</v>
@@ -26593,7 +26818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:7">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A155" s="1">
         <f>[1]物品定价!A155</f>
         <v>607</v>
@@ -26623,7 +26848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:7">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A156" s="1">
         <f>[1]物品定价!A156</f>
         <v>608</v>
@@ -26653,7 +26878,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:7">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A157" s="1">
         <f>[1]物品定价!A157</f>
         <v>701</v>
@@ -26683,7 +26908,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="158" spans="1:7">
+    <row r="158" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A158" s="1">
         <f>[1]物品定价!A158</f>
         <v>702</v>
@@ -26713,7 +26938,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="159" spans="1:7">
+    <row r="159" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A159" s="1">
         <f>[1]物品定价!A159</f>
         <v>703</v>
@@ -26743,7 +26968,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="160" spans="1:7">
+    <row r="160" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A160" s="1">
         <f>[1]物品定价!A160</f>
         <v>704</v>
@@ -26773,7 +26998,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="161" spans="1:7">
+    <row r="161" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A161" s="1">
         <f>[1]物品定价!A161</f>
         <v>705</v>
@@ -26803,7 +27028,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="162" spans="1:7">
+    <row r="162" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A162" s="1">
         <f>[1]物品定价!A162</f>
         <v>706</v>
@@ -26833,7 +27058,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="163" spans="1:7">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A163" s="1">
         <f>[1]物品定价!A163</f>
         <v>801</v>
@@ -26863,7 +27088,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="164" spans="1:7">
+    <row r="164" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A164" s="1">
         <f>[1]物品定价!A164</f>
         <v>802</v>
@@ -26893,7 +27118,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="165" spans="1:7">
+    <row r="165" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A165" s="1">
         <f>[1]物品定价!A165</f>
         <v>803</v>
@@ -26923,7 +27148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:7">
+    <row r="166" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A166" s="1">
         <f>[1]物品定价!A166</f>
         <v>804</v>
@@ -26953,7 +27178,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:7">
+    <row r="167" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A167" s="1">
         <f>[1]物品定价!A167</f>
         <v>805</v>
@@ -26983,7 +27208,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="168" spans="1:7">
+    <row r="168" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A168" s="1">
         <f>[1]物品定价!A168</f>
         <v>806</v>
@@ -27013,7 +27238,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:7">
+    <row r="169" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A169" s="1">
         <f>[1]物品定价!A169</f>
         <v>807</v>
@@ -27043,7 +27268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:7">
+    <row r="170" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A170" s="1">
         <f>[1]物品定价!A170</f>
         <v>808</v>
@@ -27073,7 +27298,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:7">
+    <row r="171" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A171" s="1">
         <f>[1]物品定价!A171</f>
         <v>809</v>
@@ -27103,7 +27328,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="172" spans="1:7">
+    <row r="172" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A172" s="1">
         <f>[1]物品定价!A172</f>
         <v>901</v>
@@ -27133,7 +27358,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:7">
+    <row r="173" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A173" s="1">
         <f>[1]物品定价!A173</f>
         <v>902</v>
@@ -27163,7 +27388,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:7">
+    <row r="174" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A174" s="1">
         <f>[1]物品定价!A174</f>
         <v>903</v>
@@ -27193,7 +27418,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:7">
+    <row r="175" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A175" s="1">
         <f>[1]物品定价!A175</f>
         <v>904</v>
@@ -27223,7 +27448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:7">
+    <row r="176" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A176" s="1">
         <f>[1]物品定价!A176</f>
         <v>905</v>
@@ -27253,7 +27478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:7">
+    <row r="177" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A177" s="1">
         <f>[1]物品定价!A177</f>
         <v>906</v>
@@ -27283,7 +27508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:7">
+    <row r="178" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A178" s="1">
         <f>[1]物品定价!A178</f>
         <v>907</v>
@@ -27313,7 +27538,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:7">
+    <row r="179" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A179" s="1">
         <f>[1]物品定价!A179</f>
         <v>908</v>
@@ -27343,7 +27568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:7">
+    <row r="180" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A180" s="1">
         <f>[1]物品定价!A180</f>
         <v>909</v>
@@ -27373,7 +27598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:7">
+    <row r="181" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A181" s="1">
         <f>[1]物品定价!A181</f>
         <v>910</v>
@@ -27403,7 +27628,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:7">
+    <row r="182" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A182" s="1">
         <f>[1]物品定价!A182</f>
         <v>911</v>
@@ -27433,7 +27658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:7">
+    <row r="183" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A183" s="1">
         <f>[1]物品定价!A183</f>
         <v>912</v>
@@ -27463,7 +27688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:7">
+    <row r="184" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A184" s="1">
         <f>[1]物品定价!A184</f>
         <v>913</v>
@@ -27493,7 +27718,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:7">
+    <row r="185" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A185" s="1">
         <f>[1]物品定价!A185</f>
         <v>914</v>
@@ -27523,7 +27748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:7">
+    <row r="186" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A186" s="1">
         <f>[1]物品定价!A186</f>
         <v>915</v>
@@ -27553,7 +27778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:7">
+    <row r="187" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A187" s="1">
         <f>[1]物品定价!A187</f>
         <v>916</v>
@@ -27583,7 +27808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:7">
+    <row r="188" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A188" s="1">
         <f>[1]物品定价!A188</f>
         <v>0</v>
@@ -27613,7 +27838,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:7">
+    <row r="189" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A189" s="1" t="str">
         <f>[1]物品定价!A189</f>
         <v>英雄</v>
@@ -27643,7 +27868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:7">
+    <row r="190" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A190" s="1">
         <f>[1]物品定价!A190</f>
         <v>2</v>
@@ -27673,7 +27898,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:7">
+    <row r="191" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A191" s="1">
         <f>[1]物品定价!A191</f>
         <v>3</v>
@@ -27703,7 +27928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:7">
+    <row r="192" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A192" s="1">
         <f>[1]物品定价!A192</f>
         <v>4</v>
@@ -27733,7 +27958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:7">
+    <row r="193" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A193" s="1">
         <f>[1]物品定价!A193</f>
         <v>5</v>
@@ -27763,7 +27988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:7">
+    <row r="194" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A194" s="1">
         <f>[1]物品定价!A194</f>
         <v>8</v>
@@ -27793,7 +28018,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:7">
+    <row r="195" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A195" s="1">
         <f>[1]物品定价!A195</f>
         <v>9</v>
@@ -27823,7 +28048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:7">
+    <row r="196" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A196" s="1">
         <f>[1]物品定价!A196</f>
         <v>10</v>
@@ -27853,7 +28078,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:7">
+    <row r="197" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A197" s="1">
         <f>[1]物品定价!A197</f>
         <v>11</v>
@@ -27883,7 +28108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:7">
+    <row r="198" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A198" s="1">
         <f>[1]物品定价!A198</f>
         <v>12</v>
@@ -27913,7 +28138,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:7">
+    <row r="199" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A199" s="1">
         <f>[1]物品定价!A199</f>
         <v>13</v>
@@ -27943,7 +28168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:7">
+    <row r="200" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A200" s="1">
         <f>[1]物品定价!A200</f>
         <v>14</v>
@@ -27973,7 +28198,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:7">
+    <row r="201" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A201" s="1">
         <f>[1]物品定价!A201</f>
         <v>15</v>
@@ -28003,7 +28228,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:7">
+    <row r="202" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A202" s="1">
         <f>[1]物品定价!A202</f>
         <v>16</v>
@@ -28033,7 +28258,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:7">
+    <row r="203" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A203" s="1">
         <f>[1]物品定价!A203</f>
         <v>17</v>
@@ -28063,7 +28288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:7">
+    <row r="204" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A204" s="1">
         <f>[1]物品定价!A204</f>
         <v>18</v>
@@ -28093,7 +28318,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:7">
+    <row r="205" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A205" s="1">
         <f>[1]物品定价!A205</f>
         <v>19</v>
@@ -28123,7 +28348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:7">
+    <row r="206" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A206" s="1">
         <f>[1]物品定价!A206</f>
         <v>20</v>
@@ -28153,7 +28378,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:7">
+    <row r="207" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A207" s="1">
         <f>[1]物品定价!A207</f>
         <v>21</v>
@@ -28183,7 +28408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:7">
+    <row r="208" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A208" s="1">
         <f>[1]物品定价!A208</f>
         <v>22</v>
@@ -28213,7 +28438,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:7">
+    <row r="209" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A209" s="1">
         <f>[1]物品定价!A209</f>
         <v>23</v>
@@ -28243,7 +28468,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:7">
+    <row r="210" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A210" s="1">
         <f>[1]物品定价!A210</f>
         <v>24</v>
@@ -28273,7 +28498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:7">
+    <row r="211" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A211" s="1">
         <f>[1]物品定价!A211</f>
         <v>25</v>
@@ -28303,7 +28528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:7">
+    <row r="212" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A212" s="1">
         <f>[1]物品定价!A212</f>
         <v>26</v>
@@ -28333,7 +28558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:7">
+    <row r="213" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A213" s="1">
         <f>[1]物品定价!A213</f>
         <v>27</v>
@@ -28363,7 +28588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:7">
+    <row r="214" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A214" s="1">
         <f>[1]物品定价!A214</f>
         <v>29</v>
@@ -28393,7 +28618,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:7">
+    <row r="215" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A215" s="1">
         <f>[1]物品定价!A215</f>
         <v>30</v>
@@ -28423,7 +28648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:7">
+    <row r="216" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A216" s="1">
         <f>[1]物品定价!A216</f>
         <v>31</v>
@@ -28453,7 +28678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:7">
+    <row r="217" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A217" s="1">
         <f>[1]物品定价!A217</f>
         <v>32</v>
@@ -28483,7 +28708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:7">
+    <row r="218" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A218" s="1">
         <f>[1]物品定价!A218</f>
         <v>33</v>
@@ -28513,7 +28738,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:7">
+    <row r="219" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A219" s="1">
         <f>[1]物品定价!A219</f>
         <v>34</v>
@@ -28543,7 +28768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:7">
+    <row r="220" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A220" s="1">
         <f>[1]物品定价!A220</f>
         <v>35</v>
@@ -28573,7 +28798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:7">
+    <row r="221" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A221" s="1">
         <f>[1]物品定价!A221</f>
         <v>36</v>
@@ -28603,7 +28828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:7">
+    <row r="222" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A222" s="1">
         <f>[1]物品定价!A222</f>
         <v>37</v>
@@ -28633,7 +28858,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:7">
+    <row r="223" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A223" s="1">
         <f>[1]物品定价!A223</f>
         <v>38</v>
@@ -28663,7 +28888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="1:7">
+    <row r="224" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A224" s="1">
         <f>[1]物品定价!A224</f>
         <v>39</v>
@@ -28693,7 +28918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="1:7">
+    <row r="225" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A225" s="1">
         <f>[1]物品定价!A225</f>
         <v>40</v>
@@ -28723,7 +28948,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="1:7">
+    <row r="226" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A226" s="1">
         <f>[1]物品定价!A226</f>
         <v>41</v>
@@ -28753,7 +28978,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="1:7">
+    <row r="227" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A227" s="1">
         <f>[1]物品定价!A227</f>
         <v>42</v>
@@ -28783,7 +29008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:7">
+    <row r="228" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A228" s="1">
         <f>[1]物品定价!A228</f>
         <v>43</v>
@@ -28813,7 +29038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:7">
+    <row r="229" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A229" s="1">
         <f>[1]物品定价!A229</f>
         <v>44</v>
@@ -28843,7 +29068,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="1:7">
+    <row r="230" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A230" s="1">
         <f>[1]物品定价!A230</f>
         <v>45</v>
@@ -28873,7 +29098,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="1:7">
+    <row r="231" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A231" s="1">
         <f>[1]物品定价!A231</f>
         <v>46</v>
@@ -28903,7 +29128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="1:7">
+    <row r="232" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A232" s="1">
         <f>[1]物品定价!A232</f>
         <v>47</v>
@@ -28933,7 +29158,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:7">
+    <row r="233" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A233" s="1">
         <f>[1]物品定价!A233</f>
         <v>48</v>
@@ -28963,7 +29188,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="1:7">
+    <row r="234" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A234" s="1">
         <f>[1]物品定价!A234</f>
         <v>49</v>
@@ -28993,7 +29218,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="1:7">
+    <row r="235" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A235" s="1">
         <f>[1]物品定价!A235</f>
         <v>51</v>
@@ -29023,7 +29248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:7">
+    <row r="236" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A236" s="1">
         <f>[1]物品定价!A236</f>
         <v>52</v>
@@ -29053,7 +29278,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="1:7">
+    <row r="237" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A237" s="1">
         <f>[1]物品定价!A237</f>
         <v>53</v>
@@ -29083,7 +29308,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="1:7">
+    <row r="238" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A238" s="1">
         <f>[1]物品定价!A238</f>
         <v>54</v>
@@ -29113,7 +29338,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="1:7">
+    <row r="239" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A239" s="1">
         <f>[1]物品定价!A239</f>
         <v>55</v>
@@ -29143,7 +29368,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="1:7">
+    <row r="240" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A240" s="1">
         <f>[1]物品定价!A240</f>
         <v>56</v>
@@ -29173,7 +29398,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="1:7">
+    <row r="241" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A241" s="1">
         <f>[1]物品定价!A241</f>
         <v>57</v>
@@ -29203,7 +29428,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:7">
+    <row r="242" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A242" s="1">
         <f>[1]物品定价!A242</f>
         <v>58</v>
@@ -29233,7 +29458,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:7">
+    <row r="243" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A243" s="1">
         <f>[1]物品定价!A243</f>
         <v>59</v>
